--- a/data/trans_orig/P36B09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B09-Edad-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4673</v>
+        <v>4309</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001721162637494053</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.009457752664874051</v>
+        <v>0.00872191381369714</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -764,19 +764,19 @@
         <v>2736</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7349</v>
+        <v>7386</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005866549360622373</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001913412980146237</v>
+        <v>0.001919635210910325</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01575510558268204</v>
+        <v>0.01583613213685076</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -785,19 +785,19 @@
         <v>3587</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8941</v>
+        <v>9029</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003734221757854753</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0009431603550884226</v>
+        <v>0.0009354956133080343</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009308676037329613</v>
+        <v>0.009400030488286965</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>18753</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11435</v>
+        <v>11707</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28995</v>
+        <v>29056</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03795735868440529</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0231457614338716</v>
+        <v>0.02369581490185233</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0586868114266385</v>
+        <v>0.05881081588796682</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>31</v>
@@ -835,19 +835,19 @@
         <v>30459</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20890</v>
+        <v>20224</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>41789</v>
+        <v>41985</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06530176729911587</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04478768484610787</v>
+        <v>0.0433588544761442</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08959351831652611</v>
+        <v>0.09001429398986874</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>50</v>
@@ -856,19 +856,19 @@
         <v>49212</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>37600</v>
+        <v>36974</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>65165</v>
+        <v>63159</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05123619485319882</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03914672098660273</v>
+        <v>0.03849514725953345</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06784564510076659</v>
+        <v>0.06575661571058936</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>187492</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>165792</v>
+        <v>168105</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>208250</v>
+        <v>210279</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3794898939010629</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3355686811827209</v>
+        <v>0.3402484872484778</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4215050909374904</v>
+        <v>0.4256098649497758</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>193</v>
@@ -906,19 +906,19 @@
         <v>182562</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>161524</v>
+        <v>161485</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>203182</v>
+        <v>201677</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3914035868306289</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3462993346974748</v>
+        <v>0.3462164781567775</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4356121461665933</v>
+        <v>0.4323850444536117</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>383</v>
@@ -927,19 +927,19 @@
         <v>370054</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>343694</v>
+        <v>339443</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>398439</v>
+        <v>397361</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3852753536930846</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3578311129450026</v>
+        <v>0.3534048188643488</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4148273452150208</v>
+        <v>0.4137054526182257</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>238723</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>218986</v>
+        <v>216992</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>259345</v>
+        <v>260890</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4831816526164849</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4432347244141769</v>
+        <v>0.4391984478129565</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5249211106713741</v>
+        <v>0.5280489790495881</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>225</v>
@@ -977,19 +977,19 @@
         <v>213812</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>192992</v>
+        <v>195201</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>238457</v>
+        <v>237101</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.458402955449408</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4137659884636888</v>
+        <v>0.4185008177650359</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5112402881368403</v>
+        <v>0.5083320207095533</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>464</v>
@@ -998,19 +998,19 @@
         <v>452535</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>422848</v>
+        <v>422951</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>481047</v>
+        <v>484868</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4711487626464033</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4402408014866838</v>
+        <v>0.4403476884387529</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5008338436255385</v>
+        <v>0.5048117242355894</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>48245</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>35235</v>
+        <v>37229</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>62400</v>
+        <v>61499</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09764993216055283</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07131587906436858</v>
+        <v>0.07535294549706996</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1263001033947123</v>
+        <v>0.1244749115807943</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>36</v>
@@ -1048,19 +1048,19 @@
         <v>36860</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>26885</v>
+        <v>25629</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>48577</v>
+        <v>50558</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07902514106022493</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05763999169334425</v>
+        <v>0.054947662516749</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1041470361301828</v>
+        <v>0.1083936772039836</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>86</v>
@@ -1069,19 +1069,19 @@
         <v>85105</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>70102</v>
+        <v>67703</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>103812</v>
+        <v>102623</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08860546704945847</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07298559590607288</v>
+        <v>0.07048817936315997</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1080823400029538</v>
+        <v>0.1068445828833086</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>5081</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1559</v>
+        <v>1673</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13173</v>
+        <v>12881</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006908519388759923</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002119389427754925</v>
+        <v>0.002274576328857097</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01791070458218066</v>
+        <v>0.01751306325555136</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -1194,19 +1194,19 @@
         <v>18467</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12138</v>
+        <v>11410</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29002</v>
+        <v>28766</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02957132955743952</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01943669870042182</v>
+        <v>0.01827027557061095</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0464407733381146</v>
+        <v>0.04606229800274655</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -1215,19 +1215,19 @@
         <v>23548</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14767</v>
+        <v>14859</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>35413</v>
+        <v>36202</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0173151228526375</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01085858129815155</v>
+        <v>0.01092602137219179</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02603938620425145</v>
+        <v>0.02661923124900441</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>21141</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13257</v>
+        <v>13425</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>31958</v>
+        <v>32017</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02874401344372813</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01802415058229839</v>
+        <v>0.01825335628248074</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04345125244327949</v>
+        <v>0.04353101334176835</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>32</v>
@@ -1265,19 +1265,19 @@
         <v>33601</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>23993</v>
+        <v>23400</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>46514</v>
+        <v>47070</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05380545818971479</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03842058847385021</v>
+        <v>0.037469670717343</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07448216099761855</v>
+        <v>0.07537325861760698</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>52</v>
@@ -1286,19 +1286,19 @@
         <v>54742</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>41534</v>
+        <v>42701</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>72700</v>
+        <v>70556</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04025205308056883</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03053992012363408</v>
+        <v>0.03139841605287246</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05345616389091191</v>
+        <v>0.05187992354547797</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>280327</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>252943</v>
+        <v>253647</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>308808</v>
+        <v>306561</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3811434867554022</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3439114706949892</v>
+        <v>0.3448681819560485</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4198678528698015</v>
+        <v>0.4168119566676038</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>245</v>
@@ -1336,19 +1336,19 @@
         <v>256127</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>231880</v>
+        <v>232121</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>282356</v>
+        <v>281802</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4101344040118187</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.37130867697</v>
+        <v>0.3716941369232831</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4521353052515841</v>
+        <v>0.4512481691010525</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>514</v>
@@ -1357,19 +1357,19 @@
         <v>536454</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>496837</v>
+        <v>499776</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>570622</v>
+        <v>576821</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3944559126062158</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3653258091570232</v>
+        <v>0.3674863175690266</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4195798095666939</v>
+        <v>0.4241378427350272</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>330153</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>303481</v>
+        <v>304680</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>359191</v>
+        <v>360805</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4488892439445309</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4126245070730475</v>
+        <v>0.4142555206118949</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4883698648032858</v>
+        <v>0.4905653704486331</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>273</v>
@@ -1407,19 +1407,19 @@
         <v>291134</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>266222</v>
+        <v>266812</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>318005</v>
+        <v>318589</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4661907465526315</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4262995187675769</v>
+        <v>0.4272449845564528</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5092197441142918</v>
+        <v>0.5101546878571502</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>588</v>
@@ -1428,19 +1428,19 @@
         <v>621287</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>582839</v>
+        <v>579887</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>659370</v>
+        <v>659214</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4568339725828434</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.428563007777964</v>
+        <v>0.4263928136622103</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4848364503363428</v>
+        <v>0.4847215456660559</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>98787</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>81408</v>
+        <v>81287</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>118567</v>
+        <v>119970</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1343147364675788</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1106850468826022</v>
+        <v>0.1105204474406639</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1612090464597132</v>
+        <v>0.1631165549284616</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -1478,19 +1478,19 @@
         <v>25166</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16598</v>
+        <v>16248</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>37606</v>
+        <v>37663</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04029806168839546</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02657891260092283</v>
+        <v>0.02601744953343114</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06021747047988851</v>
+        <v>0.06030954780638762</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>117</v>
@@ -1499,19 +1499,19 @@
         <v>123953</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>103628</v>
+        <v>102327</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>146279</v>
+        <v>147830</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.09114293887773448</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07619811842732346</v>
+        <v>0.07524151399042206</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1075595094433969</v>
+        <v>0.1087000773012342</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>6321</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2398</v>
+        <v>2476</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14964</v>
+        <v>15302</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009910442406240399</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003759326779280132</v>
+        <v>0.003881944699561618</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02346203133407364</v>
+        <v>0.02399197764926391</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1624,19 +1624,19 @@
         <v>3877</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9582</v>
+        <v>9715</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005620817271677591</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001416694816816721</v>
+        <v>0.001419708653691642</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01389226901172371</v>
+        <v>0.01408548005240001</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -1645,19 +1645,19 @@
         <v>10198</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4306</v>
+        <v>5216</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18577</v>
+        <v>19767</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007681729702939965</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003243186731658001</v>
+        <v>0.003929366042986522</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01399325554733065</v>
+        <v>0.01488971856688575</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>25475</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17512</v>
+        <v>17068</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37706</v>
+        <v>37806</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03994170536597024</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02745623406164218</v>
+        <v>0.02675969384558849</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05911745554369253</v>
+        <v>0.05927489846757217</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>26</v>
@@ -1695,19 +1695,19 @@
         <v>27869</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>18537</v>
+        <v>18344</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>39763</v>
+        <v>38970</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04040532666136265</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02687583289282672</v>
+        <v>0.02659568943353129</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05764858609474458</v>
+        <v>0.0564996718820888</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>51</v>
@@ -1716,19 +1716,19 @@
         <v>53345</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>40775</v>
+        <v>39345</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>70315</v>
+        <v>69488</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04018258391319718</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03071429305484726</v>
+        <v>0.02963745361663794</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05296574993619051</v>
+        <v>0.05234252531798424</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>245501</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>219585</v>
+        <v>220485</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>270273</v>
+        <v>270785</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3849102407950886</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3442776484147808</v>
+        <v>0.3456896579009394</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4237489880993647</v>
+        <v>0.4245521003059607</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>319</v>
@@ -1766,19 +1766,19 @@
         <v>333547</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>306455</v>
+        <v>305545</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>360233</v>
+        <v>359777</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4835810385763502</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.444302356330471</v>
+        <v>0.4429830514252009</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5222707409402726</v>
+        <v>0.5216096986347998</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>553</v>
@@ -1787,19 +1787,19 @@
         <v>579048</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>544174</v>
+        <v>541740</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>619302</v>
+        <v>617342</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.436175527052392</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4099061936370104</v>
+        <v>0.4080731135006784</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4664977201532939</v>
+        <v>0.4650212346972482</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>311834</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>286788</v>
+        <v>286524</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>337542</v>
+        <v>337880</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4889115597497237</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4496419884965206</v>
+        <v>0.4492289325747324</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5292181486225122</v>
+        <v>0.5297485256696991</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>290</v>
@@ -1837,19 +1837,19 @@
         <v>302739</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>273410</v>
+        <v>278590</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>328528</v>
+        <v>331350</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4389152508188917</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3963930986398594</v>
+        <v>0.4039033079136658</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4763046193577589</v>
+        <v>0.4803959654582783</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>592</v>
@@ -1858,19 +1858,19 @@
         <v>614573</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>577649</v>
+        <v>577970</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>652899</v>
+        <v>650593</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4629355349604073</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4351218183229233</v>
+        <v>0.4353638726367031</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4918048273112238</v>
+        <v>0.490067712759352</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>48682</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>37559</v>
+        <v>36189</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>64573</v>
+        <v>65992</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07632605168297717</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05888708585734434</v>
+        <v>0.05673992998460862</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1012410615629504</v>
+        <v>0.1034664263520244</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -1908,19 +1908,19 @@
         <v>21711</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>13974</v>
+        <v>13386</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>33857</v>
+        <v>32441</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03147756667171787</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02025975862188563</v>
+        <v>0.01940696018904958</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04908646842928091</v>
+        <v>0.04703288504680837</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>65</v>
@@ -1929,19 +1929,19 @@
         <v>70393</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>55572</v>
+        <v>54629</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>90465</v>
+        <v>89103</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0530246243710636</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04186037559519171</v>
+        <v>0.04115024696182126</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06814432154506948</v>
+        <v>0.06711768496939907</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>6009</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1928</v>
+        <v>2341</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13769</v>
+        <v>14273</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01157540599585937</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003713943607299719</v>
+        <v>0.004509070483203167</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02652265759834836</v>
+        <v>0.02749322217855866</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -2054,19 +2054,19 @@
         <v>5223</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1952</v>
+        <v>2006</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12385</v>
+        <v>11297</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01012827107832039</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003785490444185739</v>
+        <v>0.003890940653445881</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02401831156551214</v>
+        <v>0.02190824503905586</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -2075,19 +2075,19 @@
         <v>11232</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6104</v>
+        <v>5933</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>21644</v>
+        <v>19988</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01085428941552671</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005898900823798249</v>
+        <v>0.005733748787331127</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02091639162878151</v>
+        <v>0.0193160161993769</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>12752</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7506</v>
+        <v>7068</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>21836</v>
+        <v>22103</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02456410608256254</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01445756266167674</v>
+        <v>0.01361517074850594</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04206211405373221</v>
+        <v>0.04257616490519422</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>20</v>
@@ -2125,19 +2125,19 @@
         <v>21127</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>13523</v>
+        <v>13843</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>32183</v>
+        <v>32264</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04097234338784177</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02622537520476856</v>
+        <v>0.02684706729812087</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.062412667230904</v>
+        <v>0.06257122427304868</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>32</v>
@@ -2146,19 +2146,19 @@
         <v>33879</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>24235</v>
+        <v>23921</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>47971</v>
+        <v>47689</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03274043562272174</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0234205475170886</v>
+        <v>0.02311641212333653</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04635786455936399</v>
+        <v>0.04608557820982775</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>201146</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>176384</v>
+        <v>179613</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>224521</v>
+        <v>224199</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3874543227506377</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3397572007816512</v>
+        <v>0.3459765076508216</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4324797672811844</v>
+        <v>0.4318607302667631</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>215</v>
@@ -2196,19 +2196,19 @@
         <v>223325</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>202158</v>
+        <v>201454</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>245820</v>
+        <v>246818</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4331006163274694</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3920507114281087</v>
+        <v>0.3906865227764273</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4767252249824716</v>
+        <v>0.4786607769707309</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>402</v>
@@ -2217,19 +2217,19 @@
         <v>424471</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>391806</v>
+        <v>391890</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>458354</v>
+        <v>457482</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4102001626374699</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3786333931771548</v>
+        <v>0.3787148431916197</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4429443897710486</v>
+        <v>0.4421012940022147</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>263793</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>238985</v>
+        <v>241968</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>286862</v>
+        <v>286170</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5081285827615538</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4603412556639545</v>
+        <v>0.466087315804904</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.552564941095903</v>
+        <v>0.5512304573323356</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>240</v>
@@ -2267,19 +2267,19 @@
         <v>245026</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>223051</v>
+        <v>220951</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>269135</v>
+        <v>267419</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4751868014561694</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4325697877261807</v>
+        <v>0.4284976483977797</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5219411655761784</v>
+        <v>0.5186142166126206</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>487</v>
@@ -2288,19 +2288,19 @@
         <v>508820</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>475075</v>
+        <v>478831</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>541959</v>
+        <v>543931</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4917134825541707</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4591032410997198</v>
+        <v>0.4627328632461741</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5237382265031647</v>
+        <v>0.5256440725762597</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>35446</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>25001</v>
+        <v>26437</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>49740</v>
+        <v>49510</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0682775824093866</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04815829330782789</v>
+        <v>0.05092409516394804</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0958109860405926</v>
+        <v>0.0953687073891631</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>21</v>
@@ -2338,19 +2338,19 @@
         <v>20941</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>13782</v>
+        <v>12898</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>31887</v>
+        <v>31105</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04061196775019911</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02672877021275329</v>
+        <v>0.02501284276544132</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06184017817830424</v>
+        <v>0.06032222288869444</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>54</v>
@@ -2359,19 +2359,19 @@
         <v>56387</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>43243</v>
+        <v>42436</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>72781</v>
+        <v>72678</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05449162977011091</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04178923834446318</v>
+        <v>0.04100964161373284</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07033433369537156</v>
+        <v>0.07023508232573315</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>4165</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>939</v>
+        <v>1495</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>11112</v>
+        <v>12249</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01082363805268327</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.002439311263973657</v>
+        <v>0.003886219044797083</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02887731404177431</v>
+        <v>0.03183295121495096</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>6</v>
@@ -2484,19 +2484,19 @@
         <v>6712</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2504</v>
+        <v>2477</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>14440</v>
+        <v>14361</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01661359601640537</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0061990725564527</v>
+        <v>0.006132472474265183</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03574372011627248</v>
+        <v>0.03554882248587454</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>10</v>
@@ -2505,19 +2505,19 @@
         <v>10876</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5732</v>
+        <v>5259</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>19668</v>
+        <v>21289</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0137890934246996</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.007267298730474441</v>
+        <v>0.006667945777626547</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02493456852376932</v>
+        <v>0.02699009426055816</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>28663</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>19741</v>
+        <v>18838</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>40101</v>
+        <v>41175</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07449096263823662</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05130524305984838</v>
+        <v>0.0489582616559609</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1042179474207821</v>
+        <v>0.1070077947679776</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>12</v>
@@ -2555,19 +2555,19 @@
         <v>12326</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>7043</v>
+        <v>7112</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>20636</v>
+        <v>20915</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03051100571538525</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01743402629397791</v>
+        <v>0.01760541270509165</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0510807237087648</v>
+        <v>0.05177095604832745</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>40</v>
@@ -2576,19 +2576,19 @@
         <v>40989</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>30035</v>
+        <v>29712</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>55331</v>
+        <v>53919</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05196565237949428</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03807863929541985</v>
+        <v>0.03766890802835152</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07014899358510338</v>
+        <v>0.06835828868362989</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>149418</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>131283</v>
+        <v>130697</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>167967</v>
+        <v>169009</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.388316822515092</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3411874599520667</v>
+        <v>0.3396641911104923</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4365223455781571</v>
+        <v>0.4392312374752531</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>188</v>
@@ -2626,19 +2626,19 @@
         <v>193800</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>174060</v>
+        <v>174629</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>214510</v>
+        <v>214077</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.479719927449042</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4308565837782279</v>
+        <v>0.4322651274618128</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5309845498569173</v>
+        <v>0.5299108330086209</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>340</v>
@@ -2647,19 +2647,19 @@
         <v>343218</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>313999</v>
+        <v>315289</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>370439</v>
+        <v>370063</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4351309497062862</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3980874922463093</v>
+        <v>0.3997218390571293</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4696419260168989</v>
+        <v>0.46916444040766</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>178221</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>160433</v>
+        <v>158075</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>199491</v>
+        <v>195887</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4631706047645996</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4169430729770854</v>
+        <v>0.4108157801702613</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.5184488700836307</v>
+        <v>0.5090817764852207</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>182</v>
@@ -2697,19 +2697,19 @@
         <v>183106</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>162490</v>
+        <v>163404</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>202863</v>
+        <v>201840</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.45324837936974</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.4022167092922729</v>
+        <v>0.4044794872039525</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5021538335461846</v>
+        <v>0.4996221486176367</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>365</v>
@@ -2718,19 +2718,19 @@
         <v>361327</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>333949</v>
+        <v>333815</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>388461</v>
+        <v>388872</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4580887169885737</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.423379725729458</v>
+        <v>0.4232095348534947</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4924898408732238</v>
+        <v>0.4930102347442973</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>24318</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>15234</v>
+        <v>15818</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>36802</v>
+        <v>35812</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.06319797202938852</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03959013003223007</v>
+        <v>0.04110879762153274</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.09564278026128563</v>
+        <v>0.09307024467917729</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>8</v>
@@ -2768,19 +2768,19 @@
         <v>8042</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3895</v>
+        <v>3838</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>15511</v>
+        <v>15564</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01990709144942735</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.009640688429252951</v>
+        <v>0.009501421615584973</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03839509870551826</v>
+        <v>0.03852637729657171</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>31</v>
@@ -2789,19 +2789,19 @@
         <v>32360</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>22143</v>
+        <v>22677</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>45345</v>
+        <v>44585</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.04102558750094622</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02807281760921168</v>
+        <v>0.02874986905997497</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0574877047533844</v>
+        <v>0.05652527265884166</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>3725</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>9345</v>
+        <v>9538</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01276651086737648</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.003403142973657752</v>
+        <v>0.003390367272797508</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03202421934931482</v>
+        <v>0.03268425891803394</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2</v>
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>6653</v>
+        <v>6730</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.00560739426735443</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01940059859279721</v>
+        <v>0.01962483211653201</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>6</v>
@@ -2935,19 +2935,19 @@
         <v>5648</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1991</v>
+        <v>1950</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>12141</v>
+        <v>11930</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.008898667193996774</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.00313605322031199</v>
+        <v>0.003072115970397981</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01912717187341582</v>
+        <v>0.01879550362596302</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>16395</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>10420</v>
+        <v>10075</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>25243</v>
+        <v>24541</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.05618314248776823</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03570788577679451</v>
+        <v>0.03452554864161997</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.08650395599464081</v>
+        <v>0.08409746427772287</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>19</v>
@@ -2985,19 +2985,19 @@
         <v>17904</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>11155</v>
+        <v>11531</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>27294</v>
+        <v>27215</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.05220970393686837</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03252700880473448</v>
+        <v>0.03362499885806799</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07958971005931377</v>
+        <v>0.07935857128448512</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>37</v>
@@ -3006,19 +3006,19 @@
         <v>34300</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>24436</v>
+        <v>24399</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>46016</v>
+        <v>46686</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.05403641964201744</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03849658756303452</v>
+        <v>0.03843848649476382</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07249466042803634</v>
+        <v>0.07355085629835768</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>149479</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>133294</v>
+        <v>133578</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>165503</v>
+        <v>165457</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.5122410182673128</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.4567783649694269</v>
+        <v>0.4577514708212498</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5671528454045993</v>
+        <v>0.5669934287313215</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>181</v>
@@ -3056,19 +3056,19 @@
         <v>168635</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>150922</v>
+        <v>149927</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>187253</v>
+        <v>184843</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4917424613170382</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.4400915715982434</v>
+        <v>0.4371893980132103</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.546032273275837</v>
+        <v>0.5390040955279659</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>335</v>
@@ -3077,19 +3077,19 @@
         <v>318114</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>293039</v>
+        <v>292477</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>343900</v>
+        <v>341148</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5011662979850242</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.4616620502809601</v>
+        <v>0.4607757834625408</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5417890950921135</v>
+        <v>0.5374541356397496</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>112368</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>97954</v>
+        <v>96440</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>130519</v>
+        <v>129280</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3850685256891986</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3356725938258354</v>
+        <v>0.330483401734053</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4472683179693973</v>
+        <v>0.4430212939635811</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>164</v>
@@ -3127,19 +3127,19 @@
         <v>149845</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>131473</v>
+        <v>133234</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>167932</v>
+        <v>167281</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4369485251995113</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3833755942842758</v>
+        <v>0.3885126804015746</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4896906071211369</v>
+        <v>0.4877929692012905</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>280</v>
@@ -3148,19 +3148,19 @@
         <v>262213</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>238214</v>
+        <v>238332</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>287800</v>
+        <v>285172</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4130976442371892</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3752883623212636</v>
+        <v>0.3754752028489434</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4534077882550051</v>
+        <v>0.4492677417231338</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>9846</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>5078</v>
+        <v>4953</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>17668</v>
+        <v>18302</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.03374080268834392</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01740055985861152</v>
+        <v>0.01697437802782427</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.060545106506637</v>
+        <v>0.06271764273717899</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>5</v>
@@ -3198,19 +3198,19 @@
         <v>4627</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1826</v>
+        <v>1819</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>10357</v>
+        <v>11257</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.0134919152792276</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.005324802319154907</v>
+        <v>0.005302892099676522</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.03020116014187479</v>
+        <v>0.03282670552060397</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>15</v>
@@ -3219,19 +3219,19 @@
         <v>14473</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>8110</v>
+        <v>8582</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>22254</v>
+        <v>23370</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.02280097094177238</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.0127773462351171</v>
+        <v>0.01352050938748792</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.03505999421207539</v>
+        <v>0.03681853601185107</v>
       </c>
     </row>
     <row r="39">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>6106</v>
+        <v>6538</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.009531455994076571</v>
@@ -3335,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02909418327720095</v>
+        <v>0.03115255267583142</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>5</v>
@@ -3344,19 +3344,19 @@
         <v>5857</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>2250</v>
+        <v>2302</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>13374</v>
+        <v>13108</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01754146652182271</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.006739638505529854</v>
+        <v>0.006894868281527937</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.04005231682573625</v>
+        <v>0.03925606150684658</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>7</v>
@@ -3365,19 +3365,19 @@
         <v>7858</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3333</v>
+        <v>3346</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>15484</v>
+        <v>16140</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01444990175388493</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.006128436125979787</v>
+        <v>0.006152503443428492</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02847405385590442</v>
+        <v>0.02968042506434731</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>14587</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>8606</v>
+        <v>8870</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>22386</v>
+        <v>22723</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.06949871641221846</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.04100603682184119</v>
+        <v>0.04226127797577699</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1066595552442607</v>
+        <v>0.1082662171302939</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>25</v>
@@ -3415,19 +3415,19 @@
         <v>29082</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>20654</v>
+        <v>19598</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>42642</v>
+        <v>41604</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.08709692336959701</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.06185632566627749</v>
+        <v>0.05869191290535899</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1277064210316185</v>
+        <v>0.1245972432710106</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>41</v>
@@ -3436,19 +3436,19 @@
         <v>43669</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>31103</v>
+        <v>31956</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>58196</v>
+        <v>56812</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.0803046730448502</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.05719616983797645</v>
+        <v>0.05876448577629503</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1070183214827089</v>
+        <v>0.1044740271262532</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>100768</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>87138</v>
+        <v>86930</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>115189</v>
+        <v>114960</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.4801166102990984</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.4151757940153578</v>
+        <v>0.4141845341888413</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.5488225388189106</v>
+        <v>0.5477325268052045</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>157</v>
@@ -3486,19 +3486,19 @@
         <v>181204</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>162261</v>
+        <v>162549</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>201635</v>
+        <v>199948</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.5426768318715454</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.4859451946968665</v>
+        <v>0.4868067340503366</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.6038641500959301</v>
+        <v>0.5988103188914452</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>263</v>
@@ -3507,19 +3507,19 @@
         <v>281972</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>254950</v>
+        <v>256176</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>302947</v>
+        <v>305606</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.5185309239207627</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.4688382425933115</v>
+        <v>0.4710930095568334</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.557101628385502</v>
+        <v>0.5619914545814086</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>88001</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>74055</v>
+        <v>73898</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>102362</v>
+        <v>102010</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.4192865845507569</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3528395599523005</v>
+        <v>0.3520917935347783</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.4877080324811435</v>
+        <v>0.486033033298027</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>98</v>
@@ -3557,19 +3557,19 @@
         <v>112206</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>94946</v>
+        <v>93546</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>129531</v>
+        <v>130482</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.3360381286066443</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2843464964719875</v>
+        <v>0.2801537342815312</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3879243414672027</v>
+        <v>0.3907713932576706</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>189</v>
@@ -3578,19 +3578,19 @@
         <v>200207</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>180047</v>
+        <v>179105</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>226548</v>
+        <v>223463</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.3681689220045473</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.3310967544602863</v>
+        <v>0.3293641826984338</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.4166088233568346</v>
+        <v>0.4109345570241068</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>4526</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1761</v>
+        <v>1803</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>9182</v>
+        <v>10157</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.02156663274384976</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.008391680415518504</v>
+        <v>0.008588788367634066</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.04374971200162713</v>
+        <v>0.04839287698762155</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>5</v>
@@ -3628,19 +3628,19 @@
         <v>5558</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>2113</v>
+        <v>2181</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>11994</v>
+        <v>12310</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01664664963039059</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.006328272465439301</v>
+        <v>0.006532204994958852</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.03592042713548819</v>
+        <v>0.03686709419063897</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>10</v>
@@ -3649,19 +3649,19 @@
         <v>10085</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>4886</v>
+        <v>5079</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>17036</v>
+        <v>17867</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01854557927595488</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.008985827088011338</v>
+        <v>0.009339345234902744</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.03132892646026803</v>
+        <v>0.03285702293701134</v>
       </c>
     </row>
     <row r="45">
@@ -3753,19 +3753,19 @@
         <v>28153</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>18939</v>
+        <v>19577</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>41687</v>
+        <v>42560</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.008601467050211732</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.005786375684951128</v>
+        <v>0.005981303231503192</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01273681233689338</v>
+        <v>0.01300333565923325</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>44</v>
@@ -3774,19 +3774,19 @@
         <v>44795</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>34012</v>
+        <v>31485</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>60096</v>
+        <v>58987</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01326413667225658</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01007116117856879</v>
+        <v>0.009322864701981721</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01779496325492396</v>
+        <v>0.01746647689065</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>69</v>
@@ -3795,19 +3795,19 @@
         <v>72947</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>56219</v>
+        <v>56762</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>92325</v>
+        <v>92267</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01096931194011165</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.008453802253585227</v>
+        <v>0.008535456710147292</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01388323468885895</v>
+        <v>0.0138744131425866</v>
       </c>
     </row>
     <row r="47">
@@ -3824,19 +3824,19 @@
         <v>137767</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>115769</v>
+        <v>115049</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>161940</v>
+        <v>160019</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.04209190217193519</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.03537099609479996</v>
+        <v>0.03515102568491679</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.04947750879277132</v>
+        <v>0.04889069782083424</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>165</v>
@@ -3845,19 +3845,19 @@
         <v>172369</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>148338</v>
+        <v>148352</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>199912</v>
+        <v>200145</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.05104000332720078</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.04392419634109691</v>
+        <v>0.04392844303666982</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.05919568053498041</v>
+        <v>0.05926469051215624</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>303</v>
@@ -3866,19 +3866,19 @@
         <v>310136</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>275212</v>
+        <v>276997</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>346773</v>
+        <v>347566</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.04663601902178206</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.04138439834248695</v>
+        <v>0.04165288048704334</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.05214532070127193</v>
+        <v>0.05226445241191725</v>
       </c>
     </row>
     <row r="48">
@@ -3895,19 +3895,19 @@
         <v>1314131</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1253899</v>
+        <v>1259440</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1371273</v>
+        <v>1371495</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.4015073415164402</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.3831047551066327</v>
+        <v>0.3847977911931121</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.4189659339997821</v>
+        <v>0.4190339891612023</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>1498</v>
@@ -3916,19 +3916,19 @@
         <v>1539200</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>1483438</v>
+        <v>1477605</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>1596082</v>
+        <v>1599162</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.4557706349323732</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.4392590466867571</v>
+        <v>0.4375318547222989</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.4726136698059161</v>
+        <v>0.4735258145677467</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>2790</v>
@@ -3937,19 +3937,19 @@
         <v>2853331</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>2766874</v>
+        <v>2771568</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>2938491</v>
+        <v>2932018</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.4290638858224269</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.4160630196824391</v>
+        <v>0.4167689447588083</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.4418695073804341</v>
+        <v>0.4408962677299674</v>
       </c>
     </row>
     <row r="49">
@@ -3966,19 +3966,19 @@
         <v>1523093</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1463443</v>
+        <v>1463830</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>1585762</v>
+        <v>1582412</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.4653517654156709</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.4471268820850089</v>
+        <v>0.4472451859246122</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4844991068283029</v>
+        <v>0.4834756149452522</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>1472</v>
@@ -3987,19 +3987,19 @@
         <v>1497868</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>1441541</v>
+        <v>1439951</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>1554168</v>
+        <v>1555269</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.4435317649290447</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.4268528145293811</v>
+        <v>0.4263821691551226</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4602025468729881</v>
+        <v>0.4605286215011774</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>2965</v>
@@ -4008,19 +4008,19 @@
         <v>3020962</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>2939041</v>
+        <v>2942273</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>3102050</v>
+        <v>3102338</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.4542709081304805</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.4419523004606783</v>
+        <v>0.4424383306990526</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.4664644663202392</v>
+        <v>0.466507696389829</v>
       </c>
     </row>
     <row r="50">
@@ -4037,19 +4037,19 @@
         <v>269850</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>239149</v>
+        <v>239444</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>302763</v>
+        <v>306181</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.08244752384574201</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.07306750756820503</v>
+        <v>0.07315738481317181</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.09250343155884851</v>
+        <v>0.09354767738650953</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>116</v>
@@ -4058,19 +4058,19 @@
         <v>122906</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>102526</v>
+        <v>103166</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>148769</v>
+        <v>146088</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.03639346013912471</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.03035885356646622</v>
+        <v>0.03054833245544168</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.04405183929994105</v>
+        <v>0.04325799847075578</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>378</v>
@@ -4079,19 +4079,19 @@
         <v>392756</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>356523</v>
+        <v>356667</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>433164</v>
+        <v>436918</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.05905987508519896</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.05361139855042341</v>
+        <v>0.05363304563259287</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.0651360951162146</v>
+        <v>0.06570066754123322</v>
       </c>
     </row>
     <row r="51">
@@ -4426,19 +4426,19 @@
         <v>3517</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9051</v>
+        <v>8505</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007793272498999505</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002048545398030842</v>
+        <v>0.002057444281512714</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02005519579905275</v>
+        <v>0.01884522305396496</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -4450,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6096</v>
+        <v>6086</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002825162385113937</v>
@@ -4459,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01420268646516524</v>
+        <v>0.0141793471405359</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -4468,19 +4468,19 @@
         <v>4730</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1706</v>
+        <v>1822</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10757</v>
+        <v>11631</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005371527536125149</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001937755841696471</v>
+        <v>0.002069639225986755</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01221730451171765</v>
+        <v>0.01320929467981685</v>
       </c>
     </row>
     <row r="5">
@@ -4497,19 +4497,19 @@
         <v>16154</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9386</v>
+        <v>9468</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26142</v>
+        <v>26285</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03579475070193296</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02079768298298481</v>
+        <v>0.02097919839735795</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05792764970082403</v>
+        <v>0.05824389389706797</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -4518,19 +4518,19 @@
         <v>18447</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11193</v>
+        <v>10604</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>27656</v>
+        <v>27243</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04297911404038814</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02607770913040239</v>
+        <v>0.02470641174195235</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06443655894817876</v>
+        <v>0.06347472998683809</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>34</v>
@@ -4539,19 +4539,19 @@
         <v>34600</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>24399</v>
+        <v>23783</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>48622</v>
+        <v>46772</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03929682600371315</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02771018771304569</v>
+        <v>0.02701067860525811</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05522112089967517</v>
+        <v>0.0531209834666956</v>
       </c>
     </row>
     <row r="6">
@@ -4568,19 +4568,19 @@
         <v>151419</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>132014</v>
+        <v>133074</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>172084</v>
+        <v>172419</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3355256127338891</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2925261184875469</v>
+        <v>0.2948758116228093</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3813173880984486</v>
+        <v>0.3820592413800614</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>162</v>
@@ -4589,19 +4589,19 @@
         <v>163564</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>143496</v>
+        <v>144514</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>185937</v>
+        <v>183512</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3810888608422551</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3343314604576249</v>
+        <v>0.3367030138727953</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4332162187084988</v>
+        <v>0.4275663089188646</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>309</v>
@@ -4610,19 +4610,19 @@
         <v>314982</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>285417</v>
+        <v>287067</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>345324</v>
+        <v>345298</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3577357820073577</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3241568888692121</v>
+        <v>0.3260314640974343</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3921951396034537</v>
+        <v>0.3921664333121395</v>
       </c>
     </row>
     <row r="7">
@@ -4639,19 +4639,19 @@
         <v>229447</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>208612</v>
+        <v>209028</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>251343</v>
+        <v>249816</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5084268555589561</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4622588447985467</v>
+        <v>0.4631804388550523</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.556946192671896</v>
+        <v>0.5535623351947342</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>203</v>
@@ -4660,19 +4660,19 @@
         <v>208202</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>187804</v>
+        <v>188322</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>230556</v>
+        <v>228825</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4850914226460316</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4375646341748823</v>
+        <v>0.4387715410345208</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5371731836903434</v>
+        <v>0.5331399465131754</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>430</v>
@@ -4681,19 +4681,19 @@
         <v>437649</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>406541</v>
+        <v>407148</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>468660</v>
+        <v>466203</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4970518123699135</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4617217944400983</v>
+        <v>0.4624112902061409</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5322727127586302</v>
+        <v>0.5294815920581571</v>
       </c>
     </row>
     <row r="8">
@@ -4710,19 +4710,19 @@
         <v>50752</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>38384</v>
+        <v>38630</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>65243</v>
+        <v>64920</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1124595085062223</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08505518668721672</v>
+        <v>0.08560052730091205</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1445699581174533</v>
+        <v>0.1438552349713341</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>36</v>
@@ -4731,19 +4731,19 @@
         <v>37776</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>27652</v>
+        <v>27170</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>51777</v>
+        <v>49945</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08801544008621133</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06442650400239161</v>
+        <v>0.06330297706193211</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1206343489862597</v>
+        <v>0.1163682344486059</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>86</v>
@@ -4752,19 +4752,19 @@
         <v>88528</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>70649</v>
+        <v>73518</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>106765</v>
+        <v>107564</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1005440520828905</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08023853728690039</v>
+        <v>0.08349685237773967</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1212559590123035</v>
+        <v>0.1221637901547833</v>
       </c>
     </row>
     <row r="9">
@@ -4856,19 +4856,19 @@
         <v>3090</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8895</v>
+        <v>9059</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004509676537714941</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001242199046359498</v>
+        <v>0.001237642155224017</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01298297550835747</v>
+        <v>0.01322236523417578</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -4877,19 +4877,19 @@
         <v>13181</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7521</v>
+        <v>7149</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23104</v>
+        <v>22949</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02159954274461981</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01232429887309296</v>
+        <v>0.01171464434464007</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03785992136463991</v>
+        <v>0.0376056508980064</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -4898,19 +4898,19 @@
         <v>16271</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8996</v>
+        <v>9708</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26588</v>
+        <v>27091</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01256068853380511</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006944286030571803</v>
+        <v>0.007494459548556904</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02052494563569765</v>
+        <v>0.02091330139466897</v>
       </c>
     </row>
     <row r="11">
@@ -4927,19 +4927,19 @@
         <v>29272</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19945</v>
+        <v>19918</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>42586</v>
+        <v>43254</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04272456757325445</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02911088059357023</v>
+        <v>0.02907211871443337</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06215771583079951</v>
+        <v>0.06313268943339007</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>50</v>
@@ -4948,19 +4948,19 @@
         <v>54211</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>39982</v>
+        <v>40638</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>69072</v>
+        <v>69912</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08883353466141027</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06551699823533115</v>
+        <v>0.0665911121857833</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1131856459961874</v>
+        <v>0.1145622261589538</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>77</v>
@@ -4969,19 +4969,19 @@
         <v>83483</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>65927</v>
+        <v>67412</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>101799</v>
+        <v>103939</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06444643728596657</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05089333087496103</v>
+        <v>0.05203964522355548</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07858588030200915</v>
+        <v>0.08023758815469455</v>
       </c>
     </row>
     <row r="12">
@@ -4998,19 +4998,19 @@
         <v>208926</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>183678</v>
+        <v>186889</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>237672</v>
+        <v>237500</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3049429037404072</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2680920936384284</v>
+        <v>0.2727783967877513</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3468994733446179</v>
+        <v>0.3466484340257545</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>202</v>
@@ -5019,19 +5019,19 @@
         <v>215812</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>192224</v>
+        <v>192315</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>238971</v>
+        <v>241730</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3536418240969611</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3149895885462396</v>
+        <v>0.315139012269694</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3915923035490653</v>
+        <v>0.396113213335317</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>405</v>
@@ -5040,19 +5040,19 @@
         <v>424738</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>393248</v>
+        <v>389987</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>462140</v>
+        <v>460132</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.327884896804627</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3035755030248528</v>
+        <v>0.3010580230317124</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.356758287650029</v>
+        <v>0.3552077102866722</v>
       </c>
     </row>
     <row r="13">
@@ -5069,19 +5069,19 @@
         <v>365511</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>336517</v>
+        <v>337042</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>392454</v>
+        <v>390741</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5334892966785229</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4911704485992678</v>
+        <v>0.4919370575056212</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5728147982302346</v>
+        <v>0.5703146250971494</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>259</v>
@@ -5090,19 +5090,19 @@
         <v>273791</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>249101</v>
+        <v>250033</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>297390</v>
+        <v>301277</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4486506593015536</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4081913174974512</v>
+        <v>0.409718254234771</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4873209054749776</v>
+        <v>0.4936906752146228</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>616</v>
@@ -5111,19 +5111,19 @@
         <v>639302</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>605654</v>
+        <v>602942</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>677420</v>
+        <v>676888</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4935219336234538</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4675462445310193</v>
+        <v>0.465452673741798</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5229479028108952</v>
+        <v>0.5225371440903921</v>
       </c>
     </row>
     <row r="14">
@@ -5140,19 +5140,19 @@
         <v>78334</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>61454</v>
+        <v>62223</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>96173</v>
+        <v>96810</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1143335554701005</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08969628643973178</v>
+        <v>0.09081880639892666</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1403711226363582</v>
+        <v>0.1413008266607149</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>48</v>
@@ -5161,19 +5161,19 @@
         <v>53260</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>40327</v>
+        <v>39853</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>69364</v>
+        <v>69670</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08727443919545526</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06608256736829737</v>
+        <v>0.06530568335751097</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1136632672118309</v>
+        <v>0.1141660085558441</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>124</v>
@@ -5182,19 +5182,19 @@
         <v>131593</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>111702</v>
+        <v>111394</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>158970</v>
+        <v>154852</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1015860437521476</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08623036768942166</v>
+        <v>0.08599247986506786</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1227200047238664</v>
+        <v>0.1195413204546546</v>
       </c>
     </row>
     <row r="15">
@@ -5286,19 +5286,19 @@
         <v>4385</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1203</v>
+        <v>1215</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10028</v>
+        <v>10392</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006439697915571089</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001766427350675582</v>
+        <v>0.00178362130237655</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01472683374200656</v>
+        <v>0.01526076436549818</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -5307,19 +5307,19 @@
         <v>5264</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1201</v>
+        <v>1184</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12994</v>
+        <v>12723</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007415494564237716</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001691831315985806</v>
+        <v>0.001667457816979328</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01830452459247534</v>
+        <v>0.01792413524863036</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -5328,19 +5328,19 @@
         <v>9649</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4563</v>
+        <v>4648</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18794</v>
+        <v>18816</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006937741345769214</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003281132828902357</v>
+        <v>0.003341736322562907</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01351303457680533</v>
+        <v>0.0135291301343389</v>
       </c>
     </row>
     <row r="17">
@@ -5357,19 +5357,19 @@
         <v>48812</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>34914</v>
+        <v>35652</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>64213</v>
+        <v>63691</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.071684184032393</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0512739617518326</v>
+        <v>0.05235757548542713</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0943010091934713</v>
+        <v>0.09353478880193157</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>52</v>
@@ -5378,19 +5378,19 @@
         <v>53853</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>40291</v>
+        <v>40413</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>69419</v>
+        <v>68389</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07586517838419804</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05675974402162465</v>
+        <v>0.05693208412013519</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09779298872311</v>
+        <v>0.09634261850101478</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>96</v>
@@ -5399,19 +5399,19 @@
         <v>102665</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>85651</v>
+        <v>84382</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>124505</v>
+        <v>125086</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07381814992729266</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06158460397270596</v>
+        <v>0.0606725261602484</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08952142654959673</v>
+        <v>0.08993879974038702</v>
       </c>
     </row>
     <row r="18">
@@ -5428,19 +5428,19 @@
         <v>261864</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>237226</v>
+        <v>234388</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>286785</v>
+        <v>286978</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3845670283769043</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3483837574324085</v>
+        <v>0.3442152428022069</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4211643808894568</v>
+        <v>0.4214484138655428</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>263</v>
@@ -5449,19 +5449,19 @@
         <v>276088</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>250879</v>
+        <v>249512</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>304876</v>
+        <v>302003</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3889371861867642</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3534237005799994</v>
+        <v>0.3514991070801456</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4294920498267211</v>
+        <v>0.4254456828873878</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>516</v>
@@ -5470,19 +5470,19 @@
         <v>537952</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>502512</v>
+        <v>501048</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>578164</v>
+        <v>575610</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3867975426844743</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3613156557752379</v>
+        <v>0.3602625961772813</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4157104566349459</v>
+        <v>0.4138744478841777</v>
       </c>
     </row>
     <row r="19">
@@ -5499,19 +5499,19 @@
         <v>320954</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>293727</v>
+        <v>295919</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>347494</v>
+        <v>348048</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4713443375350423</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4313593857447715</v>
+        <v>0.4345789608527825</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5103208844036878</v>
+        <v>0.511134145807284</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>295</v>
@@ -5520,19 +5520,19 @@
         <v>320234</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>290808</v>
+        <v>293783</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>347548</v>
+        <v>350560</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4511278563269414</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4096745352326056</v>
+        <v>0.4138649014994053</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4896056318342957</v>
+        <v>0.4938491799611811</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>599</v>
@@ -5541,19 +5541,19 @@
         <v>641188</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>602456</v>
+        <v>608503</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>677564</v>
+        <v>683621</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4610259113945377</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4331769836035629</v>
+        <v>0.4375249702542002</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4871806761663646</v>
+        <v>0.4915363876104381</v>
       </c>
     </row>
     <row r="20">
@@ -5570,19 +5570,19 @@
         <v>44918</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>32579</v>
+        <v>31786</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>57324</v>
+        <v>59076</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06596475214008925</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04784493956801453</v>
+        <v>0.04667965261065282</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08418451799816984</v>
+        <v>0.08675694996178217</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>52</v>
@@ -5591,19 +5591,19 @@
         <v>54413</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>41770</v>
+        <v>40277</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>70286</v>
+        <v>69934</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07665428453785859</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05884282220121685</v>
+        <v>0.05674034638041958</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09901505938440482</v>
+        <v>0.09851925466582097</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>97</v>
@@ -5612,19 +5612,19 @@
         <v>99331</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>81377</v>
+        <v>80239</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>120381</v>
+        <v>119462</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07142065464792609</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05851164126956652</v>
+        <v>0.05769315974178039</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0865560301615628</v>
+        <v>0.08589554788321738</v>
       </c>
     </row>
     <row r="21">
@@ -5716,19 +5716,19 @@
         <v>6186</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2022</v>
+        <v>1990</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15207</v>
+        <v>14760</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01013162551745382</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003311434035589643</v>
+        <v>0.003259765638688614</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02490626556252339</v>
+        <v>0.02417534759473107</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -5737,19 +5737,19 @@
         <v>8345</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3997</v>
+        <v>3224</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16864</v>
+        <v>16729</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01358992557823525</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006509024618437637</v>
+        <v>0.005250426517420035</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02746182382779247</v>
+        <v>0.02724284767125629</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -5758,19 +5758,19 @@
         <v>14531</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7641</v>
+        <v>8084</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>26031</v>
+        <v>26040</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01186575166105575</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006239085594148133</v>
+        <v>0.006600891174437121</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02125660664463314</v>
+        <v>0.02126323921520908</v>
       </c>
     </row>
     <row r="23">
@@ -5787,19 +5787,19 @@
         <v>40251</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>28234</v>
+        <v>28130</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>55114</v>
+        <v>55055</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06592637926449373</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0462437158595228</v>
+        <v>0.04607329370196711</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.090268991433971</v>
+        <v>0.09017284348868886</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>40</v>
@@ -5808,19 +5808,19 @@
         <v>45801</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>33111</v>
+        <v>33581</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>60944</v>
+        <v>61388</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07458576749119904</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05392032859302169</v>
+        <v>0.05468484334628269</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09924440499182903</v>
+        <v>0.0999685272418783</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>75</v>
@@ -5829,19 +5829,19 @@
         <v>86053</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>67339</v>
+        <v>68348</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>106822</v>
+        <v>107794</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.07026853328456314</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05498719266610035</v>
+        <v>0.05581111441386937</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08722846212927463</v>
+        <v>0.08802171189324313</v>
       </c>
     </row>
     <row r="24">
@@ -5858,19 +5858,19 @@
         <v>239643</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>214708</v>
+        <v>214624</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>265336</v>
+        <v>266411</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3925020238200906</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3516628781766729</v>
+        <v>0.3515249324062081</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4345838414829547</v>
+        <v>0.4363457757192897</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>246</v>
@@ -5879,19 +5879,19 @@
         <v>277376</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>251696</v>
+        <v>252032</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>303941</v>
+        <v>305266</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4516965428869683</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4098783708392488</v>
+        <v>0.4104247544989958</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.494957646979285</v>
+        <v>0.4971149646119226</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>463</v>
@@ -5900,19 +5900,19 @@
         <v>517018</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>481366</v>
+        <v>481398</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>555123</v>
+        <v>554894</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4221844577522753</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3930716653073794</v>
+        <v>0.3930978056916463</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4532996766728415</v>
+        <v>0.4531131079136189</v>
       </c>
     </row>
     <row r="25">
@@ -5929,19 +5929,19 @@
         <v>272388</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>243391</v>
+        <v>244471</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>296362</v>
+        <v>298418</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.44613497843455</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3986409311922707</v>
+        <v>0.4004111377746707</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4854006345141053</v>
+        <v>0.4887689958899463</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>212</v>
@@ -5950,19 +5950,19 @@
         <v>247352</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>223560</v>
+        <v>223686</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>273787</v>
+        <v>275332</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4028043967233753</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.36405907430699</v>
+        <v>0.3642641667660099</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4458530257909167</v>
+        <v>0.4483694203444539</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>453</v>
@@ -5971,19 +5971,19 @@
         <v>519740</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>482037</v>
+        <v>482319</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>556867</v>
+        <v>556839</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4244073396402896</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3936201503750119</v>
+        <v>0.3938503790125154</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.454724134294058</v>
+        <v>0.4547016794207422</v>
       </c>
     </row>
     <row r="26">
@@ -6000,19 +6000,19 @@
         <v>52083</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>38864</v>
+        <v>39246</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>68306</v>
+        <v>68707</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.08530499296341179</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06365467709710601</v>
+        <v>0.06427985204600464</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.111875769139411</v>
+        <v>0.1125334929158586</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>32</v>
@@ -6021,19 +6021,19 @@
         <v>35201</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>24037</v>
+        <v>24287</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>47507</v>
+        <v>48376</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0573233673202222</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0391434976903204</v>
+        <v>0.0395506024259091</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.07736369744254078</v>
+        <v>0.07877838878090185</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>78</v>
@@ -6042,19 +6042,19 @@
         <v>87284</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>70314</v>
+        <v>69684</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>109118</v>
+        <v>106756</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07127391766181612</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05741690398704979</v>
+        <v>0.05690266318886534</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08910299573632668</v>
+        <v>0.08717439232297958</v>
       </c>
     </row>
     <row r="27">
@@ -6146,19 +6146,19 @@
         <v>4389</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1039</v>
+        <v>1052</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>11423</v>
+        <v>11072</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01024519714977812</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.002426594665316492</v>
+        <v>0.002456743115784371</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02666697962130395</v>
+        <v>0.02584741378452059</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>6</v>
@@ -6167,19 +6167,19 @@
         <v>6308</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2145</v>
+        <v>2218</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>12588</v>
+        <v>13492</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01415289911597875</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.004812200163068949</v>
+        <v>0.004975399849505283</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0282421940296845</v>
+        <v>0.03026921193077393</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>10</v>
@@ -6188,19 +6188,19 @@
         <v>10697</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5282</v>
+        <v>5506</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>20114</v>
+        <v>19412</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01223782101519854</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.006042566369411461</v>
+        <v>0.006299014412261414</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02301104518385795</v>
+        <v>0.02220798290626325</v>
       </c>
     </row>
     <row r="29">
@@ -6217,19 +6217,19 @@
         <v>36753</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>26036</v>
+        <v>25844</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>49791</v>
+        <v>49666</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0857974118892722</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06077898091065512</v>
+        <v>0.06032939449485557</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1162315759145147</v>
+        <v>0.1159409053337797</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>47</v>
@@ -6238,19 +6238,19 @@
         <v>52838</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>39872</v>
+        <v>39489</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>68524</v>
+        <v>67938</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1185438972649377</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08945537946581007</v>
+        <v>0.08859483216839885</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1537363368430857</v>
+        <v>0.1524221954973248</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>82</v>
@@ -6259,19 +6259,19 @@
         <v>89591</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>70730</v>
+        <v>72965</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>110787</v>
+        <v>111532</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1024955707643807</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08091836014549228</v>
+        <v>0.0834747896055658</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1267450986427918</v>
+        <v>0.1275971668955829</v>
       </c>
     </row>
     <row r="30">
@@ -6288,19 +6288,19 @@
         <v>196076</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>173658</v>
+        <v>176760</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>218145</v>
+        <v>218579</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4577199033707402</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4053880626155495</v>
+        <v>0.4126295861131327</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5092375367762574</v>
+        <v>0.5102524109741102</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>194</v>
@@ -6309,19 +6309,19 @@
         <v>217313</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>194342</v>
+        <v>195963</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>239970</v>
+        <v>240531</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4875546634298811</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4360180456463231</v>
+        <v>0.4396544895344784</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5383865145946441</v>
+        <v>0.5396457296577659</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>372</v>
@@ -6330,19 +6330,19 @@
         <v>413389</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>380443</v>
+        <v>385405</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>443109</v>
+        <v>444057</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4729333089546716</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4352422783517103</v>
+        <v>0.4409183621724673</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.50693440710005</v>
+        <v>0.5080186367759885</v>
       </c>
     </row>
     <row r="31">
@@ -6359,19 +6359,19 @@
         <v>170571</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>149887</v>
+        <v>150137</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>193393</v>
+        <v>190422</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3981807981228667</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3498963413489807</v>
+        <v>0.3504808762923636</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4514568955849777</v>
+        <v>0.4445210400227902</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>144</v>
@@ -6380,19 +6380,19 @@
         <v>154442</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>133788</v>
+        <v>133993</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>175408</v>
+        <v>174261</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3464990647276963</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3001602628776838</v>
+        <v>0.3006203103892663</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3935367079292803</v>
+        <v>0.3909639181017395</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>300</v>
@@ -6401,19 +6401,19 @@
         <v>325012</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>298297</v>
+        <v>296980</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>357733</v>
+        <v>354127</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3718271364925148</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3412641351864979</v>
+        <v>0.3397565785133972</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4092611661325657</v>
+        <v>0.4051357431392268</v>
       </c>
     </row>
     <row r="32">
@@ -6430,19 +6430,19 @@
         <v>20586</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>13097</v>
+        <v>13167</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>31233</v>
+        <v>31703</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04805668946734275</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03057433657741652</v>
+        <v>0.03073721420999012</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07291051507708986</v>
+        <v>0.07400762816091877</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>13</v>
@@ -6451,19 +6451,19 @@
         <v>14820</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>8161</v>
+        <v>8573</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>25757</v>
+        <v>25296</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03324947546150613</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01831051441231242</v>
+        <v>0.01923322148560704</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.05778745402983083</v>
+        <v>0.05675366126820226</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>32</v>
@@ -6472,19 +6472,19 @@
         <v>35406</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>25479</v>
+        <v>23749</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>51011</v>
+        <v>50066</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.04050616277323438</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02914926837318318</v>
+        <v>0.0271693335939889</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.05835905926571467</v>
+        <v>0.05727795278993906</v>
       </c>
     </row>
     <row r="33">
@@ -6576,19 +6576,19 @@
         <v>3910</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>997</v>
+        <v>980</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>9740</v>
+        <v>9009</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01274877151100814</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.003251681677754071</v>
+        <v>0.003194106398046757</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03175896219194358</v>
+        <v>0.02937447734143372</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -6610,19 +6610,19 @@
         <v>3910</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>990</v>
+        <v>997</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>9767</v>
+        <v>9879</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.005935143037590697</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.001502589951044284</v>
+        <v>0.001513887679010504</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01482626795330211</v>
+        <v>0.01499617856744889</v>
       </c>
     </row>
     <row r="35">
@@ -6639,19 +6639,19 @@
         <v>25381</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>16802</v>
+        <v>17074</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>38002</v>
+        <v>36953</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.08275925084165466</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05478510985554405</v>
+        <v>0.05567183096219661</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1239106451227849</v>
+        <v>0.1204906574747036</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>47</v>
@@ -6660,19 +6660,19 @@
         <v>49835</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>37596</v>
+        <v>37976</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>63267</v>
+        <v>64384</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1415429136634079</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1067806271358996</v>
+        <v>0.1078603780002848</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1796927632883668</v>
+        <v>0.1828669261505881</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>70</v>
@@ -6681,19 +6681,19 @@
         <v>75216</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>59380</v>
+        <v>58737</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>93341</v>
+        <v>93471</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1141763986372853</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.09013725816721824</v>
+        <v>0.0891610152337998</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1416888660874354</v>
+        <v>0.1418865823461787</v>
       </c>
     </row>
     <row r="36">
@@ -6710,19 +6710,19 @@
         <v>156377</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>137759</v>
+        <v>138589</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>174591</v>
+        <v>176427</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.5098872318672687</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.4491822760798864</v>
+        <v>0.4518887753738666</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5692759869037534</v>
+        <v>0.5752647924558205</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>181</v>
@@ -6731,19 +6731,19 @@
         <v>185288</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>165503</v>
+        <v>166808</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>203458</v>
+        <v>204836</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.5262622494380967</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.4700694272815245</v>
+        <v>0.4737742444043329</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5778694813997728</v>
+        <v>0.5817825078508971</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>323</v>
@@ -6752,19 +6752,19 @@
         <v>341665</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>313677</v>
+        <v>314849</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>367620</v>
+        <v>367138</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5186389210693981</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.4761540344587663</v>
+        <v>0.4779338163904765</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5580380145839779</v>
+        <v>0.5573071810250756</v>
       </c>
     </row>
     <row r="37">
@@ -6781,19 +6781,19 @@
         <v>105706</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>89365</v>
+        <v>89546</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>122714</v>
+        <v>122475</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3446689827371733</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2913847703189639</v>
+        <v>0.2919768584374186</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4001245701232968</v>
+        <v>0.3993462741768488</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>103</v>
@@ -6802,19 +6802,19 @@
         <v>104911</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>88904</v>
+        <v>88230</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>122904</v>
+        <v>123430</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2979722256915032</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2525098759192667</v>
+        <v>0.2505945479102642</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3490780309834558</v>
+        <v>0.3505709019235686</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>201</v>
@@ -6823,19 +6823,19 @@
         <v>210617</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>184993</v>
+        <v>188426</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>237050</v>
+        <v>235183</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3197117268048741</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2808154527649442</v>
+        <v>0.2860256035077265</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3598360928943339</v>
+        <v>0.3570015039155489</v>
       </c>
     </row>
     <row r="38">
@@ -6852,19 +6852,19 @@
         <v>15315</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>8075</v>
+        <v>8606</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>26391</v>
+        <v>27633</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.04993576304289524</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.02633093700468718</v>
+        <v>0.02806115901280268</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.08605124404605494</v>
+        <v>0.09010132332180575</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>12</v>
@@ -6873,19 +6873,19 @@
         <v>12049</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>6063</v>
+        <v>6893</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>20108</v>
+        <v>20346</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.03422261120699209</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01722009534645607</v>
+        <v>0.01957641329955779</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.05711266436292372</v>
+        <v>0.05778620526228534</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>24</v>
@@ -6894,19 +6894,19 @@
         <v>27364</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>17345</v>
+        <v>16670</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>40538</v>
+        <v>39667</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.04153781045085173</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.02632896280472864</v>
+        <v>0.0253040590021573</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.06153547654991073</v>
+        <v>0.06021416335894841</v>
       </c>
     </row>
     <row r="39">
@@ -6998,19 +6998,19 @@
         <v>4932</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1648</v>
+        <v>1433</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>14886</v>
+        <v>13261</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01991418131779722</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.00665261543179691</v>
+        <v>0.00578588423304853</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.06010532205504599</v>
+        <v>0.05354529977453731</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>10</v>
@@ -7019,19 +7019,19 @@
         <v>11230</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>5626</v>
+        <v>5521</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>19398</v>
+        <v>19329</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.02925698153695912</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01465611887341279</v>
+        <v>0.01438429681724329</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.05053600057871929</v>
+        <v>0.05035672912420551</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>14</v>
@@ -7040,19 +7040,19 @@
         <v>16162</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>8861</v>
+        <v>9316</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>27473</v>
+        <v>27219</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.02559302697855007</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01403108549505026</v>
+        <v>0.01475163855599204</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.0435041437478473</v>
+        <v>0.04310233286543877</v>
       </c>
     </row>
     <row r="41">
@@ -7069,19 +7069,19 @@
         <v>41577</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>30293</v>
+        <v>29108</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>56566</v>
+        <v>55277</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1678802244271553</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1223195972526444</v>
+        <v>0.1175350061278167</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2284030469893012</v>
+        <v>0.2231981048237562</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>46</v>
@@ -7090,19 +7090,19 @@
         <v>50538</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>38010</v>
+        <v>38399</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>65993</v>
+        <v>65539</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1316617074331225</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.09902300356988665</v>
+        <v>0.1000360638796248</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1719237995245569</v>
+        <v>0.1707417423516458</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>82</v>
@@ -7111,19 +7111,19 @@
         <v>92115</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>74562</v>
+        <v>73887</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>110528</v>
+        <v>110971</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1458654790354448</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.118070342103111</v>
+        <v>0.117001320591029</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1750230127778503</v>
+        <v>0.1757235607940781</v>
       </c>
     </row>
     <row r="42">
@@ -7140,19 +7140,19 @@
         <v>115702</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>98040</v>
+        <v>98788</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>131855</v>
+        <v>132961</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.4671878005529523</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3958706329217968</v>
+        <v>0.3988892098185969</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.5324113361086242</v>
+        <v>0.5368744127473545</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>194</v>
@@ -7161,19 +7161,19 @@
         <v>213922</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>192282</v>
+        <v>193945</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>232232</v>
+        <v>233593</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.5573069650244312</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.5009318616626475</v>
+        <v>0.5052630436928069</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.6050094874658982</v>
+        <v>0.6085548255105216</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>296</v>
@@ -7182,19 +7182,19 @@
         <v>329625</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>305091</v>
+        <v>303893</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>356151</v>
+        <v>353670</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.5219650422903807</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.4831158475062983</v>
+        <v>0.4812183395829794</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.5639706270138962</v>
+        <v>0.5600418862333545</v>
       </c>
     </row>
     <row r="43">
@@ -7211,19 +7211,19 @@
         <v>76127</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>61608</v>
+        <v>61266</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>92446</v>
+        <v>91475</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.307388312013126</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2487615053783838</v>
+        <v>0.247384287253673</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3732831302649779</v>
+        <v>0.369361987763239</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>90</v>
@@ -7232,19 +7232,19 @@
         <v>101226</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>85578</v>
+        <v>85060</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>120912</v>
+        <v>121278</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2637142506822618</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2229479849924419</v>
+        <v>0.2215964379519085</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3149979547996992</v>
+        <v>0.3159528784938652</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>159</v>
@@ -7253,19 +7253,19 @@
         <v>177354</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>153995</v>
+        <v>156790</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>202949</v>
+        <v>201974</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2808418540071471</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2438525242605787</v>
+        <v>0.2482790886044146</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3213723844002971</v>
+        <v>0.3198292704868917</v>
       </c>
     </row>
     <row r="44">
@@ -7282,19 +7282,19 @@
         <v>9319</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>4387</v>
+        <v>5075</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>16741</v>
+        <v>17488</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.03762948168896911</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01771251846295686</v>
+        <v>0.02049239557453301</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.06759705634597624</v>
+        <v>0.07061495732055541</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>6</v>
@@ -7303,19 +7303,19 @@
         <v>6932</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>2312</v>
+        <v>2359</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>14921</v>
+        <v>14767</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01806009532322541</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.006023812983791292</v>
+        <v>0.006146370170896955</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.03887187218451996</v>
+        <v>0.03846985464011179</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>15</v>
@@ -7324,19 +7324,19 @@
         <v>16252</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>9666</v>
+        <v>9347</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>26117</v>
+        <v>26138</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.02573459768847738</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.0153055871512539</v>
+        <v>0.01480084321242897</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.04135673896706093</v>
+        <v>0.04139006482595184</v>
       </c>
     </row>
     <row r="45">
@@ -7428,19 +7428,19 @@
         <v>30408</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>20425</v>
+        <v>21267</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>45248</v>
+        <v>46784</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.008915723692370609</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.005988777969098289</v>
+        <v>0.006235534458685293</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01326665788884774</v>
+        <v>0.01371728285701387</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>40</v>
@@ -7449,19 +7449,19 @@
         <v>45541</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>31985</v>
+        <v>33146</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>61716</v>
+        <v>62880</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01284653845604761</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.009022540187323189</v>
+        <v>0.009349845795726909</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01740920662082811</v>
+        <v>0.01773738145704477</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>68</v>
@@ -7470,19 +7470,19 @@
         <v>75950</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>58940</v>
+        <v>58835</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>96300</v>
+        <v>95722</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01091911099068069</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.008473638204953901</v>
+        <v>0.008458592184154783</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01384479361132402</v>
+        <v>0.01376169609832645</v>
       </c>
     </row>
     <row r="47">
@@ -7499,19 +7499,19 @@
         <v>238201</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>211180</v>
+        <v>208292</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>274702</v>
+        <v>271205</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.0698408020807096</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.06191841089138445</v>
+        <v>0.06107152341360565</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.08054301114457345</v>
+        <v>0.07951767151341044</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>300</v>
@@ -7520,19 +7520,19 @@
         <v>325523</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>291410</v>
+        <v>288577</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>363211</v>
+        <v>361129</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.0918249175660036</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.08220212032451618</v>
+        <v>0.08140318046686686</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1024561168330712</v>
+        <v>0.1018688443613403</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>516</v>
@@ -7541,19 +7541,19 @@
         <v>563723</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>517905</v>
+        <v>517788</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>610133</v>
+        <v>612121</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.08104527249605453</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.07445812486127883</v>
+        <v>0.07444128017096523</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.08771754247185835</v>
+        <v>0.08800333784588399</v>
       </c>
     </row>
     <row r="48">
@@ -7570,19 +7570,19 @@
         <v>1330006</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1275087</v>
+        <v>1277277</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1393121</v>
+        <v>1394058</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3899597669366235</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.3738573309561514</v>
+        <v>0.3744993709367462</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.4084651814505994</v>
+        <v>0.4087397400929582</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>1442</v>
@@ -7591,19 +7591,19 @@
         <v>1549362</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>1488161</v>
+        <v>1485530</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>1607051</v>
+        <v>1605388</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.4370510829678214</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.4197870677805526</v>
+        <v>0.4190450466075559</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.453324263814186</v>
+        <v>0.452855180787148</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>2684</v>
@@ -7612,19 +7612,19 @@
         <v>2879368</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>2790446</v>
+        <v>2798967</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>2966896</v>
+        <v>2964952</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.4139604258507458</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.4011762690619011</v>
+        <v>0.4024012843954167</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.4265440286595329</v>
+        <v>0.4262646100226566</v>
       </c>
     </row>
     <row r="49">
@@ -7641,19 +7641,19 @@
         <v>1540703</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1473752</v>
+        <v>1483695</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>1598066</v>
+        <v>1603194</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.4517363836176892</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.4321063861446413</v>
+        <v>0.4350214773338621</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.468555375447304</v>
+        <v>0.4700589627693022</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>1306</v>
@@ -7662,19 +7662,19 @@
         <v>1410159</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>1350372</v>
+        <v>1354177</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>1473516</v>
+        <v>1473606</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3977839756920595</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3809188854289408</v>
+        <v>0.381992248703761</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4156560384853135</v>
+        <v>0.4156812901338579</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>2758</v>
@@ -7683,19 +7683,19 @@
         <v>2950862</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>2865696</v>
+        <v>2867707</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>3035148</v>
+        <v>3032903</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.4242388862158166</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.4119947344509209</v>
+        <v>0.4122838340972875</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.4363564980123374</v>
+        <v>0.4360338168738747</v>
       </c>
     </row>
     <row r="50">
@@ -7712,19 +7712,19 @@
         <v>271306</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>239399</v>
+        <v>240739</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>306394</v>
+        <v>305689</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.07954732367260713</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.07019224876564427</v>
+        <v>0.0705850895008367</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.08983503456877755</v>
+        <v>0.08962843306246741</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>199</v>
@@ -7733,19 +7733,19 @@
         <v>214452</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>188762</v>
+        <v>185520</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>243328</v>
+        <v>247304</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.0604934853180679</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.05324677069956507</v>
+        <v>0.05233244146619519</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.06863900927981451</v>
+        <v>0.06976056748508154</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>456</v>
@@ -7754,19 +7754,19 @@
         <v>485758</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>440458</v>
+        <v>446014</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>531261</v>
+        <v>533809</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.06983630444670243</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.06332361305010842</v>
+        <v>0.0641224662118039</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.07637823209502516</v>
+        <v>0.07674455616655802</v>
       </c>
     </row>
     <row r="51">
@@ -8104,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6272</v>
+        <v>5507</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002623994975242994</v>
@@ -8113,7 +8113,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01503416506678519</v>
+        <v>0.01320077522075082</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -8122,19 +8122,19 @@
         <v>4304</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1455</v>
+        <v>952</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11132</v>
+        <v>10494</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01090049794358422</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003685762468610466</v>
+        <v>0.002411160882896804</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02819409808890566</v>
+        <v>0.02657697356864915</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -8143,19 +8143,19 @@
         <v>5399</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1893</v>
+        <v>1880</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12335</v>
+        <v>12200</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006648343545469314</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002331303735380803</v>
+        <v>0.002315693027204633</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01518992427558587</v>
+        <v>0.01502465714752884</v>
       </c>
     </row>
     <row r="5">
@@ -8172,19 +8172,19 @@
         <v>3077</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9198</v>
+        <v>8350</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.007376149846236714</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002152552939262622</v>
+        <v>0.002144355852917234</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02204880132408613</v>
+        <v>0.02001489921630319</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -8193,19 +8193,19 @@
         <v>12499</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6688</v>
+        <v>6826</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20346</v>
+        <v>20860</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03165564843737086</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01693983261075522</v>
+        <v>0.01728798920500381</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05153045800654863</v>
+        <v>0.0528318018399912</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -8214,19 +8214,19 @@
         <v>15576</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9665</v>
+        <v>8782</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>24458</v>
+        <v>23688</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01918175975356034</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01190297373015792</v>
+        <v>0.01081458383496655</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03012029275560073</v>
+        <v>0.02917187132708732</v>
       </c>
     </row>
     <row r="6">
@@ -8243,19 +8243,19 @@
         <v>134086</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>115158</v>
+        <v>115497</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>154924</v>
+        <v>153964</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3214059068991835</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2760355794895835</v>
+        <v>0.2768470280957223</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.371355626640398</v>
+        <v>0.3690545352082173</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>159</v>
@@ -8264,19 +8264,19 @@
         <v>154735</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>136208</v>
+        <v>136910</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>171609</v>
+        <v>174876</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3918970862885056</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.344974381699781</v>
+        <v>0.3467511504567147</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4346340745309398</v>
+        <v>0.4429091020475918</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>285</v>
@@ -8285,19 +8285,19 @@
         <v>288821</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>259741</v>
+        <v>262805</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>315655</v>
+        <v>317427</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3556813826736869</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3198699614483217</v>
+        <v>0.3236429382059207</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3887280975198267</v>
+        <v>0.3909097267894628</v>
       </c>
     </row>
     <row r="7">
@@ -8314,19 +8314,19 @@
         <v>214656</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>194099</v>
+        <v>193924</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>233914</v>
+        <v>234886</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5145324188204796</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4652569256867544</v>
+        <v>0.4648381531138224</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5606956597235943</v>
+        <v>0.5630253501464763</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>175</v>
@@ -8335,19 +8335,19 @@
         <v>170838</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>153030</v>
+        <v>151189</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>190104</v>
+        <v>189656</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4326799621680054</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.387579815120645</v>
+        <v>0.3829149813012781</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.481476321623485</v>
+        <v>0.480341791734002</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>376</v>
@@ -8356,19 +8356,19 @@
         <v>385493</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>358567</v>
+        <v>356765</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>414559</v>
+        <v>413176</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4747326606183853</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4415730118797291</v>
+        <v>0.4393540297955418</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5105270933731982</v>
+        <v>0.5088237471752</v>
       </c>
     </row>
     <row r="8">
@@ -8385,19 +8385,19 @@
         <v>64272</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>50979</v>
+        <v>50215</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>79624</v>
+        <v>81402</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1540615294588572</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1221975491024378</v>
+        <v>0.1203668662957644</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1908604022000756</v>
+        <v>0.195121834500333</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>52</v>
@@ -8406,19 +8406,19 @@
         <v>52461</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>40241</v>
+        <v>41129</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>65926</v>
+        <v>67267</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.132866805162534</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1019195241519047</v>
+        <v>0.1041661627542243</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1669709555275748</v>
+        <v>0.170366885383883</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>112</v>
@@ -8427,19 +8427,19 @@
         <v>116733</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>98785</v>
+        <v>97939</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>138937</v>
+        <v>137556</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1437558534088981</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1216531373102575</v>
+        <v>0.1206109108945681</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1710996616679752</v>
+        <v>0.1693995287262562</v>
       </c>
     </row>
     <row r="9">
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7200</v>
+        <v>7999</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003684849195401956</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01227162512379482</v>
+        <v>0.01363389259157632</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -8552,19 +8552,19 @@
         <v>2819</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6765</v>
+        <v>7974</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005020528816018628</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0</v>
+        <v>0.001637629766042043</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01204744876140538</v>
+        <v>0.01419905710290134</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -8573,19 +8573,19 @@
         <v>4981</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1846</v>
+        <v>1853</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11141</v>
+        <v>12396</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00433806731354594</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001607849478281841</v>
+        <v>0.00161369666801364</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009702392796701603</v>
+        <v>0.01079513675312398</v>
       </c>
     </row>
     <row r="11">
@@ -8602,19 +8602,19 @@
         <v>7031</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2785</v>
+        <v>2905</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15626</v>
+        <v>15215</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01198425212127885</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004746631956845292</v>
+        <v>0.004952216783568665</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02663442201833385</v>
+        <v>0.02593316601738034</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -8623,19 +8623,19 @@
         <v>14964</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9400</v>
+        <v>9246</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>24912</v>
+        <v>23280</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02664730874852177</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01673942396548609</v>
+        <v>0.01646569401757021</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04436264316814138</v>
+        <v>0.04145605940303358</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>22</v>
@@ -8644,19 +8644,19 @@
         <v>21995</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>14117</v>
+        <v>13540</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>34314</v>
+        <v>33251</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01915526387323186</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01229456345152961</v>
+        <v>0.01179186413034631</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02988319358993855</v>
+        <v>0.02895726463090189</v>
       </c>
     </row>
     <row r="12">
@@ -8673,19 +8673,19 @@
         <v>165082</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>143039</v>
+        <v>144431</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>186597</v>
+        <v>189248</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2813730289240977</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2438019874485134</v>
+        <v>0.2461744016660908</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3180443840842045</v>
+        <v>0.3225623588968619</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>222</v>
@@ -8694,19 +8694,19 @@
         <v>215966</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>193994</v>
+        <v>195220</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>240145</v>
+        <v>239062</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3845815430674326</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3454554393488312</v>
+        <v>0.3476386330527982</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4276380316213028</v>
+        <v>0.4257103266815807</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>380</v>
@@ -8715,19 +8715,19 @@
         <v>381048</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>348866</v>
+        <v>350587</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>414998</v>
+        <v>412971</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.331847461822924</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3038205085300328</v>
+        <v>0.3053197326614756</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3614132931347478</v>
+        <v>0.3596483669727817</v>
       </c>
     </row>
     <row r="13">
@@ -8744,19 +8744,19 @@
         <v>308214</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>285307</v>
+        <v>282418</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>333873</v>
+        <v>332257</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5253339359937744</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.486289638852464</v>
+        <v>0.4813663356315547</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.569068386806062</v>
+        <v>0.5663147220054232</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>241</v>
@@ -8765,19 +8765,19 @@
         <v>237623</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>216332</v>
+        <v>215495</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>259936</v>
+        <v>260540</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4231475984042116</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3852340109199398</v>
+        <v>0.3837420528365306</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4628804054023483</v>
+        <v>0.4639567882116619</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>539</v>
@@ -8786,19 +8786,19 @@
         <v>545838</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>511969</v>
+        <v>513308</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>580461</v>
+        <v>579377</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4753594015994694</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4458640680481369</v>
+        <v>0.447030132770417</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5055123113271269</v>
+        <v>0.504568197415303</v>
       </c>
     </row>
     <row r="14">
@@ -8815,19 +8815,19 @@
         <v>104212</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>87470</v>
+        <v>86524</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>125146</v>
+        <v>123032</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1776239337654471</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1490880703388285</v>
+        <v>0.1474754566312026</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2133042171070364</v>
+        <v>0.2097018502183822</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>95</v>
@@ -8836,19 +8836,19 @@
         <v>90188</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>74551</v>
+        <v>74135</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>108629</v>
+        <v>108384</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1606030209638154</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1327563280945239</v>
+        <v>0.1320152570084462</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.193440439876076</v>
+        <v>0.1930044586019035</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>194</v>
@@ -8857,19 +8857,19 @@
         <v>194401</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>171717</v>
+        <v>169783</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>220992</v>
+        <v>219515</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1692998053908288</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1495454253045981</v>
+        <v>0.1478610922887672</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1924579942862285</v>
+        <v>0.1911716125242716</v>
       </c>
     </row>
     <row r="15">
@@ -8961,19 +8961,19 @@
         <v>5551</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1833</v>
+        <v>1821</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13065</v>
+        <v>12121</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008385540691751247</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002768825924748926</v>
+        <v>0.002750956077165948</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01973624316424132</v>
+        <v>0.01830943381992844</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -8982,19 +8982,19 @@
         <v>9557</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4243</v>
+        <v>4644</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18307</v>
+        <v>17824</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01448765256425826</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006432053660204594</v>
+        <v>0.00704077418694686</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02775261143289677</v>
+        <v>0.02702076035244153</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -9003,19 +9003,19 @@
         <v>15108</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8574</v>
+        <v>8732</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24325</v>
+        <v>24351</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01143118959605856</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006487647669049636</v>
+        <v>0.006606618066705356</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01840533625713962</v>
+        <v>0.01842516881455174</v>
       </c>
     </row>
     <row r="17">
@@ -9032,19 +9032,19 @@
         <v>24693</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16059</v>
+        <v>16631</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>36005</v>
+        <v>35345</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03730137894445974</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02425862017691408</v>
+        <v>0.02512253525032021</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05438830156653384</v>
+        <v>0.0533918575661536</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>29</v>
@@ -9053,19 +9053,19 @@
         <v>28623</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19737</v>
+        <v>20224</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>40311</v>
+        <v>40535</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04339186844400589</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02991996825254216</v>
+        <v>0.03065829314880367</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06110969329540384</v>
+        <v>0.06145002889225339</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>53</v>
@@ -9074,19 +9074,19 @@
         <v>53317</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>39612</v>
+        <v>40315</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>67530</v>
+        <v>69133</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04034122696077724</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02997192744241871</v>
+        <v>0.0305037316032243</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05109586735183554</v>
+        <v>0.05230882015920731</v>
       </c>
     </row>
     <row r="18">
@@ -9103,19 +9103,19 @@
         <v>211886</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>188208</v>
+        <v>188054</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>236244</v>
+        <v>236429</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3200737950978871</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2843059330968745</v>
+        <v>0.2840727127448529</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3568688185030612</v>
+        <v>0.3571477381035024</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>231</v>
@@ -9124,19 +9124,19 @@
         <v>230376</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>206668</v>
+        <v>204980</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>254787</v>
+        <v>253574</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3492395663622259</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3132994233004405</v>
+        <v>0.3107411991927408</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3862462616942549</v>
+        <v>0.3844074236241223</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>435</v>
@@ -9145,19 +9145,19 @@
         <v>442261</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>410406</v>
+        <v>411030</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>477351</v>
+        <v>477513</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3346308371761761</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3105278167387519</v>
+        <v>0.3110005325129321</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3611813111243743</v>
+        <v>0.3613039156525664</v>
       </c>
     </row>
     <row r="19">
@@ -9174,19 +9174,19 @@
         <v>322635</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>296273</v>
+        <v>298630</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>347131</v>
+        <v>349724</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4873707427497322</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4475482404021194</v>
+        <v>0.4511094924402521</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5243748116517156</v>
+        <v>0.5282907124595302</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>302</v>
@@ -9195,19 +9195,19 @@
         <v>300020</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>275617</v>
+        <v>275008</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>325860</v>
+        <v>325448</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4548177953991037</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4178231130632237</v>
+        <v>0.4169012044887127</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4939892399508107</v>
+        <v>0.493365673147234</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>609</v>
@@ -9216,19 +9216,19 @@
         <v>622655</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>586222</v>
+        <v>587130</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>658729</v>
+        <v>655943</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4711231139776162</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4435568479311807</v>
+        <v>0.4442438109908507</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4984181847593662</v>
+        <v>0.4963103823835766</v>
       </c>
     </row>
     <row r="20">
@@ -9245,19 +9245,19 @@
         <v>97226</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>78905</v>
+        <v>79766</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>115585</v>
+        <v>117934</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1468685425161697</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.119192856680725</v>
+        <v>0.1204935789734367</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1746017476679353</v>
+        <v>0.1781509844617177</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>92</v>
@@ -9266,19 +9266,19 @@
         <v>91073</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>74480</v>
+        <v>75055</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>109610</v>
+        <v>109166</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1380631172304062</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1129087613551243</v>
+        <v>0.11378006769097</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1661637013700394</v>
+        <v>0.1654912331665696</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>184</v>
@@ -9287,19 +9287,19 @@
         <v>188299</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>162143</v>
+        <v>162739</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>214923</v>
+        <v>213951</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1424736322893718</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1226833137562773</v>
+        <v>0.1231342075106589</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1626185562274889</v>
+        <v>0.1618832179391798</v>
       </c>
     </row>
     <row r="21">
@@ -9394,7 +9394,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5952</v>
+        <v>6727</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.002972812748423689</v>
@@ -9403,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.009212217478624204</v>
+        <v>0.01041185211526105</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -9412,19 +9412,19 @@
         <v>5158</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2024</v>
+        <v>2036</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11222</v>
+        <v>11758</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.007995977311887155</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003138306373656613</v>
+        <v>0.003155546061628534</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01739702417195827</v>
+        <v>0.01822737095823903</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -9433,19 +9433,19 @@
         <v>7079</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3027</v>
+        <v>3061</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>14248</v>
+        <v>14204</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.005482490476631349</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002344466599921142</v>
+        <v>0.002371024861994444</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0110351920374763</v>
+        <v>0.01100125397730121</v>
       </c>
     </row>
     <row r="23">
@@ -9462,19 +9462,19 @@
         <v>21509</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>13325</v>
+        <v>13532</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>32110</v>
+        <v>33431</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03329319918944672</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0206250308620559</v>
+        <v>0.0209457315377111</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04970171823569503</v>
+        <v>0.05174713423493393</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>20</v>
@@ -9483,19 +9483,19 @@
         <v>21083</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>13178</v>
+        <v>13266</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>30535</v>
+        <v>32726</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03268280138765346</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0204283162321576</v>
+        <v>0.02056496455073067</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04733641829248537</v>
+        <v>0.05073195193272621</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>39</v>
@@ -9504,19 +9504,19 @@
         <v>42592</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>31015</v>
+        <v>31255</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>57115</v>
+        <v>56635</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03298823172338958</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0240220608852804</v>
+        <v>0.02420794175215678</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04423678265410493</v>
+        <v>0.04386504279524898</v>
       </c>
     </row>
     <row r="24">
@@ -9533,19 +9533,19 @@
         <v>220770</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>193278</v>
+        <v>195068</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>245629</v>
+        <v>245778</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3417243747685991</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2991701486550803</v>
+        <v>0.3019407432596113</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3802028440481905</v>
+        <v>0.3804325958307755</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>217</v>
@@ -9554,19 +9554,19 @@
         <v>233000</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>208859</v>
+        <v>209217</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>257803</v>
+        <v>258441</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3612017738395576</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3237784414567857</v>
+        <v>0.324332993998553</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3996520957581699</v>
+        <v>0.400640092474382</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>417</v>
@@ -9575,19 +9575,19 @@
         <v>453771</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>418732</v>
+        <v>421365</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>491016</v>
+        <v>494567</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3514556893680342</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3243173451560001</v>
+        <v>0.3263566133945333</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3803031670911454</v>
+        <v>0.3830535805620937</v>
       </c>
     </row>
     <row r="25">
@@ -9604,19 +9604,19 @@
         <v>300804</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>275803</v>
+        <v>274818</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>330157</v>
+        <v>326797</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4656069895953751</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4269083803643883</v>
+        <v>0.4253836674367163</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.511040778361634</v>
+        <v>0.5058397082007572</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>256</v>
@@ -9625,19 +9625,19 @@
         <v>277648</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>250270</v>
+        <v>252396</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>302076</v>
+        <v>305146</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.430415255826863</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3879740592271313</v>
+        <v>0.3912696731919847</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4682852537120566</v>
+        <v>0.473044506181395</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>526</v>
@@ -9646,19 +9646,19 @@
         <v>578452</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>541095</v>
+        <v>539304</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>618326</v>
+        <v>614233</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4480244658018581</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4190903443208476</v>
+        <v>0.4177031039583494</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4789076178773219</v>
+        <v>0.4757372772746222</v>
       </c>
     </row>
     <row r="26">
@@ -9675,19 +9675,19 @@
         <v>101044</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>82569</v>
+        <v>82968</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>119313</v>
+        <v>120856</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1564026236981554</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1278064832846711</v>
+        <v>0.1284235794988622</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1846807193631172</v>
+        <v>0.1870697557508738</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>100</v>
@@ -9696,19 +9696,19 @@
         <v>108181</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>90690</v>
+        <v>90554</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>130535</v>
+        <v>129190</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1677041916340387</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1405892563708756</v>
+        <v>0.1403781526547309</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2023578186802953</v>
+        <v>0.2002735504401332</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>191</v>
@@ -9717,19 +9717,19 @@
         <v>209225</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>183130</v>
+        <v>183770</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>238222</v>
+        <v>237525</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1620491226300868</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1418379955862429</v>
+        <v>0.1423343032257164</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1845082746104724</v>
+        <v>0.1839686899233853</v>
       </c>
     </row>
     <row r="27">
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>8718</v>
+        <v>7966</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.004999350876138417</v>
@@ -9833,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01828392611414703</v>
+        <v>0.01670824278019604</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>6</v>
@@ -9842,19 +9842,19 @@
         <v>7207</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3044</v>
+        <v>2886</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>16156</v>
+        <v>14165</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01453981927405145</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.006140622977380449</v>
+        <v>0.005822224191500917</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03259362505585935</v>
+        <v>0.02857665292922151</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>8</v>
@@ -9863,19 +9863,19 @@
         <v>9591</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3595</v>
+        <v>4113</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>17575</v>
+        <v>17778</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.009862288726994739</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.003696710938333664</v>
+        <v>0.004228923652117408</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01807282931829348</v>
+        <v>0.01828077300166375</v>
       </c>
     </row>
     <row r="29">
@@ -9892,19 +9892,19 @@
         <v>14062</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7734</v>
+        <v>7729</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>23883</v>
+        <v>23024</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02949361232624551</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01622116434268903</v>
+        <v>0.01621124201416499</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05009114234770445</v>
+        <v>0.0482901626040306</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>23</v>
@@ -9913,19 +9913,19 @@
         <v>27629</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>18156</v>
+        <v>18539</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>40091</v>
+        <v>41148</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05573814652516362</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03662788182990481</v>
+        <v>0.03740092318686192</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0808801912164876</v>
+        <v>0.08301237209475688</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>35</v>
@@ -9934,19 +9934,19 @@
         <v>41691</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>30135</v>
+        <v>29067</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>58412</v>
+        <v>57167</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04287089459489492</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03098842170010029</v>
+        <v>0.02988933114136579</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06006543696005721</v>
+        <v>0.0587857068153684</v>
       </c>
     </row>
     <row r="30">
@@ -9963,19 +9963,19 @@
         <v>200047</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>177767</v>
+        <v>175587</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>222007</v>
+        <v>222656</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4195738860015206</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3728437265889548</v>
+        <v>0.3682724470409492</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4656317922393206</v>
+        <v>0.4669935145296579</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>192</v>
@@ -9984,19 +9984,19 @@
         <v>218762</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>195531</v>
+        <v>192571</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>242682</v>
+        <v>242017</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4413322811889952</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3944665336637654</v>
+        <v>0.3884937274601758</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4895896054370573</v>
+        <v>0.4882467517118244</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>368</v>
@@ -10005,19 +10005,19 @@
         <v>418809</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>388563</v>
+        <v>388370</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>451063</v>
+        <v>452682</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4306645074592895</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3995624869392577</v>
+        <v>0.3993638435789448</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.463831951475154</v>
+        <v>0.4654962886996476</v>
       </c>
     </row>
     <row r="31">
@@ -10034,19 +10034,19 @@
         <v>203050</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>179739</v>
+        <v>181144</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>227157</v>
+        <v>226757</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4258713923029043</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3769801796680209</v>
+        <v>0.3799271845431865</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4764347841763428</v>
+        <v>0.4755957717204196</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>161</v>
@@ -10055,19 +10055,19 @@
         <v>183937</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>161148</v>
+        <v>160914</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>205421</v>
+        <v>209804</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3710769843040464</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3251014241124624</v>
+        <v>0.3246293864700192</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4144192665558445</v>
+        <v>0.4232601743031421</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>343</v>
@@ -10076,19 +10076,19 @@
         <v>386987</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>356850</v>
+        <v>354009</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>420075</v>
+        <v>417009</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3979417572410452</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3669521146795938</v>
+        <v>0.3640303626511597</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4319663803988694</v>
+        <v>0.4288135717787215</v>
       </c>
     </row>
     <row r="32">
@@ -10105,19 +10105,19 @@
         <v>57244</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>43412</v>
+        <v>44141</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>72514</v>
+        <v>73808</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1200617584931911</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09105199900191384</v>
+        <v>0.09257978330979588</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1520884567507368</v>
+        <v>0.1548032736441364</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>50</v>
@@ -10126,19 +10126,19 @@
         <v>58150</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>44921</v>
+        <v>44642</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>76277</v>
+        <v>75814</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1173127687077433</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.09062442433652812</v>
+        <v>0.09006109733200221</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1538828437678561</v>
+        <v>0.152948343175043</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>101</v>
@@ -10147,19 +10147,19 @@
         <v>115394</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>96060</v>
+        <v>96104</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>138780</v>
+        <v>137231</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1186605519777756</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.09877926851061669</v>
+        <v>0.09882484586731341</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1427090417885054</v>
+        <v>0.1411157279336014</v>
       </c>
     </row>
     <row r="33">
@@ -10254,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4750</v>
+        <v>5762</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.002845501713231429</v>
@@ -10263,7 +10263,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01429134976637487</v>
+        <v>0.01733550994169281</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>4</v>
@@ -10272,19 +10272,19 @@
         <v>3831</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>9830</v>
+        <v>9457</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01014140114784459</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.002693493611140913</v>
+        <v>0.002678285408307958</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02602138727652456</v>
+        <v>0.02503337226348102</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>5</v>
@@ -10293,19 +10293,19 @@
         <v>4777</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1800</v>
+        <v>1842</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>9700</v>
+        <v>11551</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.006726680789898204</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.002534970831699886</v>
+        <v>0.002594351161862071</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01365996493861462</v>
+        <v>0.01626619876056157</v>
       </c>
     </row>
     <row r="35">
@@ -10322,19 +10322,19 @@
         <v>12489</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>6573</v>
+        <v>6432</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>23235</v>
+        <v>23071</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.03757690917267848</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01977772035530377</v>
+        <v>0.01935123136204817</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.06990880880103745</v>
+        <v>0.06941564926663317</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>25</v>
@@ -10343,19 +10343,19 @@
         <v>26251</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>18423</v>
+        <v>16696</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>37186</v>
+        <v>37497</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.06949059100270626</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04876934119010343</v>
+        <v>0.04419644275483598</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.09843771483213427</v>
+        <v>0.09926165440703717</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>36</v>
@@ -10364,19 +10364,19 @@
         <v>38740</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>28664</v>
+        <v>27528</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>55684</v>
+        <v>52783</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0545539406255074</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.04036527332757139</v>
+        <v>0.0387655281338531</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07841489041849557</v>
+        <v>0.07432992113888659</v>
       </c>
     </row>
     <row r="36">
@@ -10393,19 +10393,19 @@
         <v>121565</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>102712</v>
+        <v>104653</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>138938</v>
+        <v>139261</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3657609885256473</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3090388330282272</v>
+        <v>0.3148783220635757</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4180337046863314</v>
+        <v>0.4190053231504265</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>158</v>
@@ -10414,19 +10414,19 @@
         <v>164649</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>145925</v>
+        <v>145033</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>185065</v>
+        <v>184140</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4358547445868148</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3862885055070687</v>
+        <v>0.3839268108155269</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4898983471725786</v>
+        <v>0.4874488488621504</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>277</v>
@@ -10435,19 +10435,19 @@
         <v>286214</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>261297</v>
+        <v>258134</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>312354</v>
+        <v>312192</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.403048566550496</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3679606965737561</v>
+        <v>0.3635055212226398</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4398596404606031</v>
+        <v>0.4396315584789556</v>
       </c>
     </row>
     <row r="37">
@@ -10464,19 +10464,19 @@
         <v>155879</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>137834</v>
+        <v>138018</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>175747</v>
+        <v>174830</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4690065563802997</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4147129971993214</v>
+        <v>0.415264290259677</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5287845827078451</v>
+        <v>0.5260255712038684</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>128</v>
@@ -10485,19 +10485,19 @@
         <v>140510</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>120934</v>
+        <v>122256</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>159700</v>
+        <v>160829</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3719549017596358</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3201315290926985</v>
+        <v>0.3236331057493576</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4227531280913818</v>
+        <v>0.4257427300882478</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>279</v>
@@ -10506,19 +10506,19 @@
         <v>296390</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>269148</v>
+        <v>268591</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>323847</v>
+        <v>323146</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4173782609733493</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3790157130941631</v>
+        <v>0.3782313999404734</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4560432089574626</v>
+        <v>0.4550561812667363</v>
       </c>
     </row>
     <row r="38">
@@ -10535,19 +10535,19 @@
         <v>41482</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>30681</v>
+        <v>31292</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>54845</v>
+        <v>55136</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1248100442081431</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.09231363078632697</v>
+        <v>0.09415106471218027</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1650159337872563</v>
+        <v>0.1658915739274534</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>39</v>
@@ -10556,19 +10556,19 @@
         <v>42520</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>30521</v>
+        <v>31100</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>55764</v>
+        <v>57314</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1125583615029985</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.08079388301852108</v>
+        <v>0.08232642866815006</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1476162966646468</v>
+        <v>0.1517187098363198</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>80</v>
@@ -10577,19 +10577,19 @@
         <v>84002</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>69406</v>
+        <v>66529</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>104307</v>
+        <v>102298</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1182925510607491</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.09773830957848219</v>
+        <v>0.0936868525780651</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1468855679196025</v>
+        <v>0.1440569280966804</v>
       </c>
     </row>
     <row r="39">
@@ -10681,19 +10681,19 @@
         <v>7334</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>3301</v>
+        <v>3239</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>13701</v>
+        <v>14655</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.02863736103204008</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01289052930428689</v>
+        <v>0.01264573406833729</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.05349843240934463</v>
+        <v>0.05722182873105865</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>7</v>
@@ -10702,19 +10702,19 @@
         <v>8678</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>3726</v>
+        <v>3643</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>17387</v>
+        <v>16497</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.02168593040827782</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.009309919129817237</v>
+        <v>0.009103722267847589</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.04344895715795696</v>
+        <v>0.04122578556100527</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>15</v>
@@ -10723,19 +10723,19 @@
         <v>16012</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>9408</v>
+        <v>9053</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>25482</v>
+        <v>26166</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.02439868095459488</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01433615440198402</v>
+        <v>0.01379434324956438</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.03882820279008179</v>
+        <v>0.03987042227324775</v>
       </c>
     </row>
     <row r="41">
@@ -10752,19 +10752,19 @@
         <v>17464</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>11398</v>
+        <v>11029</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>26978</v>
+        <v>27136</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.06819172363290332</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.04450555481086575</v>
+        <v>0.0430641323865812</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.105339772091568</v>
+        <v>0.1059556603207127</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>12</v>
@@ -10773,19 +10773,19 @@
         <v>16901</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>9161</v>
+        <v>9283</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>28496</v>
+        <v>29341</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.04223341969191699</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.02289328427453807</v>
+        <v>0.02319661686977676</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.07120941553646511</v>
+        <v>0.07332068951464092</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>31</v>
@@ -10794,19 +10794,19 @@
         <v>34365</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>24008</v>
+        <v>23694</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>48196</v>
+        <v>49572</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.05236347881336777</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.03658238143432899</v>
+        <v>0.03610384661397827</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.07343877213442034</v>
+        <v>0.07553522453321002</v>
       </c>
     </row>
     <row r="42">
@@ -10823,19 +10823,19 @@
         <v>107779</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>93637</v>
+        <v>93495</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>122181</v>
+        <v>120634</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.420835272857047</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3656170542212824</v>
+        <v>0.3650598443661539</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4770699738709179</v>
+        <v>0.4710292902057154</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>144</v>
@@ -10844,19 +10844,19 @@
         <v>192357</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>166577</v>
+        <v>169809</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>216104</v>
+        <v>213183</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.4806906501661813</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.4162666128062419</v>
+        <v>0.4243430148076317</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5400309850281813</v>
+        <v>0.5327324321677196</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>272</v>
@@ -10865,19 +10865,19 @@
         <v>300137</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>275001</v>
+        <v>271174</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>329753</v>
+        <v>327144</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.4573324788366243</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.4190324107672381</v>
+        <v>0.4132007385988539</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.5024602878676172</v>
+        <v>0.4984853454879744</v>
       </c>
     </row>
     <row r="43">
@@ -10894,19 +10894,19 @@
         <v>96349</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>82745</v>
+        <v>81982</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>110235</v>
+        <v>110887</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.376205464437055</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3230859955436788</v>
+        <v>0.3201071528969763</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.4304219703876047</v>
+        <v>0.4329692837406444</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>94</v>
@@ -10915,19 +10915,19 @@
         <v>126264</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>104244</v>
+        <v>106892</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>148974</v>
+        <v>148305</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.3155261757133028</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2604993873096047</v>
+        <v>0.267117026041987</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3722779827491233</v>
+        <v>0.3706058598913425</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>208</v>
@@ -10936,19 +10936,19 @@
         <v>222613</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>195247</v>
+        <v>197490</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>246815</v>
+        <v>247343</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.3392058731086572</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2975077351301955</v>
+        <v>0.3009255119753017</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3760832826245081</v>
+        <v>0.3768878895912934</v>
       </c>
     </row>
     <row r="44">
@@ -10965,19 +10965,19 @@
         <v>27181</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>19379</v>
+        <v>19344</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>38622</v>
+        <v>37447</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1061301780409546</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.07566788973145247</v>
+        <v>0.07553153443143441</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1508031790541736</v>
+        <v>0.1462168917957023</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>44</v>
@@ -10986,19 +10986,19 @@
         <v>55969</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>41601</v>
+        <v>43256</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>72424</v>
+        <v>72961</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1398638240203211</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.103958349657195</v>
+        <v>0.1080954446886342</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1809823219398521</v>
+        <v>0.1823259742455214</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>76</v>
@@ -11007,19 +11007,19 @@
         <v>83150</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>64802</v>
+        <v>66032</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>100030</v>
+        <v>104782</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1266994882867559</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.09874229974649724</v>
+        <v>0.100616401613736</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1524201453538138</v>
+        <v>0.1596606778469367</v>
       </c>
     </row>
     <row r="45">
@@ -11111,19 +11111,19 @@
         <v>21392</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>13286</v>
+        <v>14316</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>32498</v>
+        <v>32392</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.006334257698558472</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.003934107799195028</v>
+        <v>0.004239167829679036</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.009622823948540315</v>
+        <v>0.009591302660390624</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>38</v>
@@ -11132,19 +11132,19 @@
         <v>41554</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>29867</v>
+        <v>30233</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>57451</v>
+        <v>56687</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.0117559733442244</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.00844953547708713</v>
+        <v>0.008553109539440031</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01625343314540906</v>
+        <v>0.01603707002577574</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>59</v>
@@ -11153,19 +11153,19 @@
         <v>62946</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>47453</v>
+        <v>47669</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>79495</v>
+        <v>81147</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.009106906606844505</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.006865395372653432</v>
+        <v>0.006896648696288974</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01150122510867374</v>
+        <v>0.01174011080415914</v>
       </c>
     </row>
     <row r="47">
@@ -11182,19 +11182,19 @@
         <v>100326</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>81097</v>
+        <v>80484</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>123529</v>
+        <v>122441</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.02970709881635113</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.0240131832707347</v>
+        <v>0.02383156427145735</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.03657744937260387</v>
+        <v>0.03625542248493949</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>138</v>
@@ -11203,19 +11203,19 @@
         <v>147949</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>124880</v>
+        <v>124635</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>175019</v>
+        <v>173888</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.04185577613926333</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.03532943063874033</v>
+        <v>0.03526023214952152</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.04951401389461873</v>
+        <v>0.04919419695078719</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>232</v>
@@ -11224,19 +11224,19 @@
         <v>248275</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>219633</v>
+        <v>216737</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>282887</v>
+        <v>280876</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.03591989548771815</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.03177606648150222</v>
+        <v>0.03135704036564819</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.04092749711030215</v>
+        <v>0.04063645771772135</v>
       </c>
     </row>
     <row r="48">
@@ -11253,19 +11253,19 @@
         <v>1161215</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1109626</v>
+        <v>1105220</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1220352</v>
+        <v>1213248</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3438415277822058</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.3285656020384582</v>
+        <v>0.3272611466996084</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.361352182361744</v>
+        <v>0.3592487227422838</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>1323</v>
@@ -11274,19 +11274,19 @@
         <v>1409845</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>1351643</v>
+        <v>1344389</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>1470362</v>
+        <v>1467516</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.3988550518036523</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.3823894521578072</v>
+        <v>0.3803371465797915</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.4159757540765412</v>
+        <v>0.4151705986205795</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>2434</v>
@@ -11295,19 +11295,19 @@
         <v>2571060</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>2493975</v>
+        <v>2491033</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>2652714</v>
+        <v>2654343</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.3719752768180787</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.3608228375068017</v>
+        <v>0.3603971099402375</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3837888021276543</v>
+        <v>0.3840244134061627</v>
       </c>
     </row>
     <row r="49">
@@ -11324,19 +11324,19 @@
         <v>1601587</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1542247</v>
+        <v>1545671</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>1658950</v>
+        <v>1658611</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.4742379678829145</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.4566670109993096</v>
+        <v>0.4576809241503059</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4912234242475397</v>
+        <v>0.4911228993521639</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>1357</v>
@@ -11345,19 +11345,19 @@
         <v>1436840</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>1375781</v>
+        <v>1373292</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>1492963</v>
+        <v>1498267</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.4064920252099782</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3892180131356412</v>
+        <v>0.3885138955681892</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4223697203066282</v>
+        <v>0.4238702281073594</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>2880</v>
@@ -11366,19 +11366,19 @@
         <v>3038427</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>2953907</v>
+        <v>2944230</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>3131490</v>
+        <v>3118306</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.4395928986338329</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.4273647824206672</v>
+        <v>0.4259646257747768</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.453057116189999</v>
+        <v>0.4511495721258596</v>
       </c>
     </row>
     <row r="50">
@@ -11395,19 +11395,19 @@
         <v>492660</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>454611</v>
+        <v>452588</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>537933</v>
+        <v>534063</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1458791478199702</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1346125434838034</v>
+        <v>0.1340136538305673</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1592846946528239</v>
+        <v>0.1581388091574563</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>472</v>
@@ -11416,19 +11416,19 @@
         <v>498542</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>453567</v>
+        <v>457643</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>540468</v>
+        <v>543517</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1410411735028818</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1283172085754507</v>
+        <v>0.1294702910654719</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1529022845328318</v>
+        <v>0.1537649038633394</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>938</v>
@@ -11437,19 +11437,19 @@
         <v>991203</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>931668</v>
+        <v>935219</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1050107</v>
+        <v>1051153</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1434050224535257</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1347916647189899</v>
+        <v>0.1353053694527462</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1519271753499585</v>
+        <v>0.1520784755876526</v>
       </c>
     </row>
     <row r="51">
